--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R50_Pentropia.xlsx
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G2" t="n">
         <v>0.5714285714285714</v>
@@ -655,7 +655,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:59.998856</t>
+          <t>2025-10-16T12:16:32.198403</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G3" t="n">
         <v>0.5714285714285714</v>
@@ -745,7 +745,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:59.998856</t>
+          <t>2025-10-16T12:16:32.199391</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G4" t="n">
         <v>0.5714285714285714</v>
@@ -839,7 +839,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:59.998856</t>
+          <t>2025-10-16T12:16:32.199391</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G5" t="n">
         <v>0.5714285714285714</v>
@@ -933,7 +933,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:59.998856</t>
+          <t>2025-10-16T12:16:32.199391</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G6" t="n">
         <v>0.5714285714285714</v>
@@ -1023,7 +1023,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:59.999856</t>
+          <t>2025-10-16T12:16:32.199391</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G7" t="n">
         <v>0.5714285714285714</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:59.999856</t>
+          <t>2025-10-16T12:16:32.199391</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G8" t="n">
         <v>0.5714285714285714</v>
@@ -1207,7 +1207,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:59.999856</t>
+          <t>2025-10-16T12:16:32.199391</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G9" t="n">
         <v>0.5714285714285714</v>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.000857</t>
+          <t>2025-10-16T12:16:32.199391</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G10" t="n">
         <v>0.5714285714285714</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.001855</t>
+          <t>2025-10-16T12:16:32.199391</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G11" t="n">
         <v>0.5714285714285714</v>
@@ -1485,7 +1485,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.001855</t>
+          <t>2025-10-16T12:16:32.200387</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G12" t="n">
         <v>0.5714285714285714</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.001855</t>
+          <t>2025-10-16T12:16:32.200387</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G13" t="n">
         <v>0.5714285714285714</v>
@@ -1669,7 +1669,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.002852</t>
+          <t>2025-10-16T12:16:32.200387</t>
         </is>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G14" t="n">
         <v>0.5714285714285714</v>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.002852</t>
+          <t>2025-10-16T12:16:32.200387</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G15" t="n">
         <v>0.5714285714285714</v>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.002852</t>
+          <t>2025-10-16T12:16:32.200387</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G16" t="n">
         <v>0.5714285714285714</v>
@@ -1897,7 +1897,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L16" t="n">
         <v>0.5916727785823274</v>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.002852</t>
+          <t>2025-10-16T12:16:32.200387</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G17" t="n">
         <v>0.5714285714285714</v>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.003852</t>
+          <t>2025-10-16T12:16:32.200387</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G18" t="n">
         <v>0.5714285714285714</v>
@@ -2085,7 +2085,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L18" t="n">
         <v>0.5916727785823274</v>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.003852</t>
+          <t>2025-10-16T12:16:32.200387</t>
         </is>
       </c>
     </row>
@@ -2162,7 +2162,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G19" t="n">
         <v>0.5714285714285714</v>
@@ -2229,7 +2229,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.003852</t>
+          <t>2025-10-16T12:16:32.200387</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G20" t="n">
         <v>0.5714285714285714</v>
@@ -2319,7 +2319,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.003852</t>
+          <t>2025-10-16T12:16:32.200387</t>
         </is>
       </c>
     </row>
@@ -2342,7 +2342,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G21" t="n">
         <v>0.5714285714285714</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.004856</t>
+          <t>2025-10-16T12:16:32.201385</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G22" t="n">
         <v>0.5714285714285714</v>
@@ -2503,7 +2503,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.004856</t>
+          <t>2025-10-16T12:16:32.201385</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G23" t="n">
         <v>0.5714285714285714</v>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.004856</t>
+          <t>2025-10-16T12:16:32.201385</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G24" t="n">
         <v>0.5714285714285714</v>
@@ -2687,7 +2687,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.005855</t>
+          <t>2025-10-16T12:16:32.201385</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G25" t="n">
         <v>0.5714285714285714</v>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.005855</t>
+          <t>2025-10-16T12:16:32.201385</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G26" t="n">
         <v>0.5714285714285714</v>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.005855</t>
+          <t>2025-10-16T12:16:32.202385</t>
         </is>
       </c>
     </row>
@@ -2898,7 +2898,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G27" t="n">
         <v>0.5714285714285714</v>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.005855</t>
+          <t>2025-10-16T12:16:32.202385</t>
         </is>
       </c>
     </row>
@@ -2992,7 +2992,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G28" t="n">
         <v>0.5714285714285714</v>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.005855</t>
+          <t>2025-10-16T12:16:32.202385</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G29" t="n">
         <v>0.5714285714285714</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.006855</t>
+          <t>2025-10-16T12:16:32.203397</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G30" t="n">
         <v>0.5714285714285714</v>
@@ -3247,7 +3247,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.007857</t>
+          <t>2025-10-16T12:16:32.203397</t>
         </is>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G31" t="n">
         <v>0.5714285714285714</v>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.007857</t>
+          <t>2025-10-16T12:16:32.204391</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G32" t="n">
         <v>0.5714285714285714</v>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.008855</t>
+          <t>2025-10-16T12:16:32.204391</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G33" t="n">
         <v>0.5714285714285714</v>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.008855</t>
+          <t>2025-10-16T12:16:32.204391</t>
         </is>
       </c>
     </row>
@@ -3552,7 +3552,7 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G34" t="n">
         <v>0.5714285714285714</v>
@@ -3569,7 +3569,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L34" t="n">
         <v>0.5916727785823274</v>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.008855</t>
+          <t>2025-10-16T12:16:32.205386</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G35" t="n">
         <v>0.5714285714285714</v>
@@ -3713,7 +3713,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.008855</t>
+          <t>2025-10-16T12:16:32.205386</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G36" t="n">
         <v>0.5714285714285714</v>
@@ -3753,7 +3753,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L36" t="n">
         <v>0.5916727785823274</v>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.009857</t>
+          <t>2025-10-16T12:16:32.205386</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G37" t="n">
         <v>0.5714285714285714</v>
@@ -3897,7 +3897,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.010855</t>
+          <t>2025-10-16T12:16:32.206388</t>
         </is>
       </c>
     </row>
@@ -3920,7 +3920,7 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G38" t="n">
         <v>0.5714285714285714</v>
@@ -3987,7 +3987,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.010855</t>
+          <t>2025-10-16T12:16:32.206388</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G39" t="n">
         <v>0.5714285714285714</v>
@@ -4077,7 +4077,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.012857</t>
+          <t>2025-10-16T12:16:32.206388</t>
         </is>
       </c>
     </row>
@@ -4100,7 +4100,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G40" t="n">
         <v>0.5714285714285714</v>
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.012857</t>
+          <t>2025-10-16T12:16:32.206388</t>
         </is>
       </c>
     </row>
@@ -4194,7 +4194,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G41" t="n">
         <v>0.5714285714285714</v>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.012857</t>
+          <t>2025-10-16T12:16:32.206388</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G42" t="n">
         <v>0.5714285714285714</v>
@@ -4355,7 +4355,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.012857</t>
+          <t>2025-10-16T12:16:32.206388</t>
         </is>
       </c>
     </row>
@@ -4378,7 +4378,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G43" t="n">
         <v>0.5714285714285714</v>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.013855</t>
+          <t>2025-10-16T12:16:32.207395</t>
         </is>
       </c>
     </row>
@@ -4472,7 +4472,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9363625563425718</v>
+        <v>0.9350318717406624</v>
       </c>
       <c r="G44" t="n">
         <v>0.5714285714285714</v>
@@ -4539,7 +4539,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.013855</t>
+          <t>2025-10-16T12:16:32.207395</t>
         </is>
       </c>
     </row>
@@ -4562,7 +4562,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G45" t="n">
         <v>0.5714285714285714</v>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.080742</t>
+          <t>2025-10-16T12:16:32.278751</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G46" t="n">
         <v>0.5714285714285714</v>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.080742</t>
+          <t>2025-10-16T12:16:32.279751</t>
         </is>
       </c>
     </row>
@@ -4750,7 +4750,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G47" t="n">
         <v>0.5714285714285714</v>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.080742</t>
+          <t>2025-10-16T12:16:32.279751</t>
         </is>
       </c>
     </row>
@@ -4844,7 +4844,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G48" t="n">
         <v>0.5714285714285714</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.080742</t>
+          <t>2025-10-16T12:16:32.279751</t>
         </is>
       </c>
     </row>
@@ -4938,7 +4938,7 @@
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G49" t="n">
         <v>0.5714285714285714</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.081865</t>
+          <t>2025-10-16T12:16:32.279751</t>
         </is>
       </c>
     </row>
@@ -5032,7 +5032,7 @@
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G50" t="n">
         <v>0.5714285714285714</v>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.081865</t>
+          <t>2025-10-16T12:16:32.279751</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G51" t="n">
         <v>0.5714285714285714</v>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.081865</t>
+          <t>2025-10-16T12:16:32.279751</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G52" t="n">
         <v>0.5714285714285714</v>
@@ -5287,7 +5287,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.081865</t>
+          <t>2025-10-16T12:16:32.279751</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G53" t="n">
         <v>0.5714285714285714</v>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.081865</t>
+          <t>2025-10-16T12:16:32.279751</t>
         </is>
       </c>
     </row>
@@ -5404,7 +5404,7 @@
         <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G54" t="n">
         <v>0.5714285714285714</v>
@@ -5421,7 +5421,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L54" t="n">
         <v>0.8631205685666311</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.081865</t>
+          <t>2025-10-16T12:16:32.280751</t>
         </is>
       </c>
     </row>
@@ -5498,7 +5498,7 @@
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G55" t="n">
         <v>0.5714285714285714</v>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.083117</t>
+          <t>2025-10-16T12:16:32.280751</t>
         </is>
       </c>
     </row>
@@ -5592,7 +5592,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G56" t="n">
         <v>0.5714285714285714</v>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.083117</t>
+          <t>2025-10-16T12:16:32.280751</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5686,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G57" t="n">
         <v>0.5714285714285714</v>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.083628</t>
+          <t>2025-10-16T12:16:32.281757</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G58" t="n">
         <v>0.5714285714285714</v>
@@ -5847,7 +5847,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.083628</t>
+          <t>2025-10-16T12:16:32.282758</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5870,7 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G59" t="n">
         <v>0.5714285714285714</v>
@@ -5887,7 +5887,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K59" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L59" t="n">
         <v>0.8631205685666311</v>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.083628</t>
+          <t>2025-10-16T12:16:32.282758</t>
         </is>
       </c>
     </row>
@@ -5964,7 +5964,7 @@
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G60" t="n">
         <v>0.5714285714285714</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.083628</t>
+          <t>2025-10-16T12:16:32.282758</t>
         </is>
       </c>
     </row>
@@ -6058,7 +6058,7 @@
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G61" t="n">
         <v>0.5714285714285714</v>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.083628</t>
+          <t>2025-10-16T12:16:32.282758</t>
         </is>
       </c>
     </row>
@@ -6152,7 +6152,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G62" t="n">
         <v>0.5714285714285714</v>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.084642</t>
+          <t>2025-10-16T12:16:32.282758</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G63" t="n">
         <v>0.5714285714285714</v>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.084642</t>
+          <t>2025-10-16T12:16:32.282758</t>
         </is>
       </c>
     </row>
@@ -6340,7 +6340,7 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G64" t="n">
         <v>0.5714285714285714</v>
@@ -6407,7 +6407,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.084642</t>
+          <t>2025-10-16T12:16:32.282758</t>
         </is>
       </c>
     </row>
@@ -6430,7 +6430,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G65" t="n">
         <v>0.5714285714285714</v>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.084642</t>
+          <t>2025-10-16T12:16:32.282758</t>
         </is>
       </c>
     </row>
@@ -6524,7 +6524,7 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G66" t="n">
         <v>0.5714285714285714</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.084642</t>
+          <t>2025-10-16T12:16:32.282758</t>
         </is>
       </c>
     </row>
@@ -6618,7 +6618,7 @@
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G67" t="n">
         <v>0.5714285714285714</v>
@@ -6685,7 +6685,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.085642</t>
+          <t>2025-10-16T12:16:32.283751</t>
         </is>
       </c>
     </row>
@@ -6708,7 +6708,7 @@
         <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G68" t="n">
         <v>0.5714285714285714</v>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.085642</t>
+          <t>2025-10-16T12:16:32.283751</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6802,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G69" t="n">
         <v>0.5714285714285714</v>
@@ -6819,7 +6819,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K69" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L69" t="n">
         <v>0.8631205685666311</v>
@@ -6873,7 +6873,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.085642</t>
+          <t>2025-10-16T12:16:32.283751</t>
         </is>
       </c>
     </row>
@@ -6896,7 +6896,7 @@
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G70" t="n">
         <v>0.5714285714285714</v>
@@ -6967,7 +6967,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.085642</t>
+          <t>2025-10-16T12:16:32.283751</t>
         </is>
       </c>
     </row>
@@ -6990,7 +6990,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G71" t="n">
         <v>0.5714285714285714</v>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.085642</t>
+          <t>2025-10-16T12:16:32.283751</t>
         </is>
       </c>
     </row>
@@ -7084,7 +7084,7 @@
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9342119854505688</v>
+        <v>0.9320485063716641</v>
       </c>
       <c r="G72" t="n">
         <v>0.5714285714285714</v>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.086642</t>
+          <t>2025-10-16T12:16:32.283751</t>
         </is>
       </c>
     </row>
@@ -7178,7 +7178,7 @@
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G73" t="n">
         <v>0.5714285714285714</v>
@@ -7195,7 +7195,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.148382</t>
+          <t>2025-10-16T12:16:32.352401</t>
         </is>
       </c>
     </row>
@@ -7272,7 +7272,7 @@
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G74" t="n">
         <v>0.5714285714285714</v>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.148382</t>
+          <t>2025-10-16T12:16:32.353399</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G75" t="n">
         <v>0.5714285714285714</v>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.148382</t>
+          <t>2025-10-16T12:16:32.353399</t>
         </is>
       </c>
     </row>
@@ -7460,7 +7460,7 @@
         <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G76" t="n">
         <v>0.5714285714285714</v>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.149399</t>
+          <t>2025-10-16T12:16:32.353399</t>
         </is>
       </c>
     </row>
@@ -7554,7 +7554,7 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G77" t="n">
         <v>0.5714285714285714</v>
@@ -7571,7 +7571,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K77" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L77" t="n">
         <v>0.8631205685666311</v>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.149399</t>
+          <t>2025-10-16T12:16:32.354031</t>
         </is>
       </c>
     </row>
@@ -7648,7 +7648,7 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G78" t="n">
         <v>0.5714285714285714</v>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.149399</t>
+          <t>2025-10-16T12:16:32.354031</t>
         </is>
       </c>
     </row>
@@ -7742,7 +7742,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G79" t="n">
         <v>0.5714285714285714</v>
@@ -7809,7 +7809,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.149399</t>
+          <t>2025-10-16T12:16:32.354559</t>
         </is>
       </c>
     </row>
@@ -7832,7 +7832,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G80" t="n">
         <v>0.5714285714285714</v>
@@ -7849,7 +7849,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K80" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L80" t="n">
         <v>0.8631205685666311</v>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.149399</t>
+          <t>2025-10-16T12:16:32.354559</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7926,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G81" t="n">
         <v>0.5714285714285714</v>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.149399</t>
+          <t>2025-10-16T12:16:32.354559</t>
         </is>
       </c>
     </row>
@@ -8020,7 +8020,7 @@
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G82" t="n">
         <v>0.5714285714285714</v>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.149399</t>
+          <t>2025-10-16T12:16:32.354559</t>
         </is>
       </c>
     </row>
@@ -8114,7 +8114,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G83" t="n">
         <v>0.5714285714285714</v>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.149399</t>
+          <t>2025-10-16T12:16:32.354559</t>
         </is>
       </c>
     </row>
@@ -8208,7 +8208,7 @@
         <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G84" t="n">
         <v>0.5714285714285714</v>
@@ -8279,7 +8279,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.149399</t>
+          <t>2025-10-16T12:16:32.354559</t>
         </is>
       </c>
     </row>
@@ -8302,7 +8302,7 @@
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G85" t="n">
         <v>0.5714285714285714</v>
@@ -8319,7 +8319,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K85" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L85" t="n">
         <v>0.8631205685666311</v>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.149399</t>
+          <t>2025-10-16T12:16:32.355557</t>
         </is>
       </c>
     </row>
@@ -8396,7 +8396,7 @@
         <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G86" t="n">
         <v>0.5714285714285714</v>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.150397</t>
+          <t>2025-10-16T12:16:32.355557</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8490,7 @@
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G87" t="n">
         <v>0.5714285714285714</v>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.150397</t>
+          <t>2025-10-16T12:16:32.355557</t>
         </is>
       </c>
     </row>
@@ -8584,7 +8584,7 @@
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G88" t="n">
         <v>0.5714285714285714</v>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.150397</t>
+          <t>2025-10-16T12:16:32.355557</t>
         </is>
       </c>
     </row>
@@ -8678,7 +8678,7 @@
         <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G89" t="n">
         <v>0.5714285714285714</v>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.150397</t>
+          <t>2025-10-16T12:16:32.356558</t>
         </is>
       </c>
     </row>
@@ -8772,7 +8772,7 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G90" t="n">
         <v>0.5714285714285714</v>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.150397</t>
+          <t>2025-10-16T12:16:32.356558</t>
         </is>
       </c>
     </row>
@@ -8866,7 +8866,7 @@
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G91" t="n">
         <v>0.5714285714285714</v>
@@ -8937,7 +8937,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.150397</t>
+          <t>2025-10-16T12:16:32.356558</t>
         </is>
       </c>
     </row>
@@ -8960,7 +8960,7 @@
         <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G92" t="n">
         <v>0.5714285714285714</v>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.150397</t>
+          <t>2025-10-16T12:16:32.357559</t>
         </is>
       </c>
     </row>
@@ -9054,7 +9054,7 @@
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G93" t="n">
         <v>0.5714285714285714</v>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.151398</t>
+          <t>2025-10-16T12:16:32.357559</t>
         </is>
       </c>
     </row>
@@ -9148,7 +9148,7 @@
         <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G94" t="n">
         <v>0.5714285714285714</v>
@@ -9215,7 +9215,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.151398</t>
+          <t>2025-10-16T12:16:32.357559</t>
         </is>
       </c>
     </row>
@@ -9238,7 +9238,7 @@
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G95" t="n">
         <v>0.5714285714285714</v>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.151398</t>
+          <t>2025-10-16T12:16:32.357559</t>
         </is>
       </c>
     </row>
@@ -9332,7 +9332,7 @@
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G96" t="n">
         <v>0.5714285714285714</v>
@@ -9403,7 +9403,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.151398</t>
+          <t>2025-10-16T12:16:32.358558</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9426,7 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G97" t="n">
         <v>0.5714285714285714</v>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.151398</t>
+          <t>2025-10-16T12:16:32.358558</t>
         </is>
       </c>
     </row>
@@ -9520,7 +9520,7 @@
         <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G98" t="n">
         <v>0.5714285714285714</v>
@@ -9587,7 +9587,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.151398</t>
+          <t>2025-10-16T12:16:32.358558</t>
         </is>
       </c>
     </row>
@@ -9610,7 +9610,7 @@
         <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G99" t="n">
         <v>0.5714285714285714</v>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.151398</t>
+          <t>2025-10-16T12:16:32.358558</t>
         </is>
       </c>
     </row>
@@ -9704,7 +9704,7 @@
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9237015477699052</v>
+        <v>0.9228353456943907</v>
       </c>
       <c r="G100" t="n">
         <v>0.5714285714285714</v>
@@ -9771,7 +9771,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.151398</t>
+          <t>2025-10-16T12:16:32.358558</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.216639</t>
+          <t>2025-10-16T12:16:32.437040</t>
         </is>
       </c>
     </row>
@@ -9959,7 +9959,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.216639</t>
+          <t>2025-10-16T12:16:32.437040</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.216639</t>
+          <t>2025-10-16T12:16:32.437040</t>
         </is>
       </c>
     </row>
@@ -10147,7 +10147,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.216639</t>
+          <t>2025-10-16T12:16:32.437040</t>
         </is>
       </c>
     </row>
@@ -10237,7 +10237,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.217636</t>
+          <t>2025-10-16T12:16:32.437040</t>
         </is>
       </c>
     </row>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.217636</t>
+          <t>2025-10-16T12:16:32.437040</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10425,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.217636</t>
+          <t>2025-10-16T12:16:32.437040</t>
         </is>
       </c>
     </row>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.218637</t>
+          <t>2025-10-16T12:16:32.437040</t>
         </is>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.218637</t>
+          <t>2025-10-16T12:16:32.437040</t>
         </is>
       </c>
     </row>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.218637</t>
+          <t>2025-10-16T12:16:32.438036</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R50_Pentropia.xlsx
@@ -655,7 +655,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.268972</t>
+          <t>2025-10-17T07:09:33.705290</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.268972</t>
+          <t>2025-10-17T07:09:33.705290</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.268972</t>
+          <t>2025-10-17T07:09:33.705290</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.268972</t>
+          <t>2025-10-17T07:09:33.705290</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.268972</t>
+          <t>2025-10-17T07:09:33.705290</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.268972</t>
+          <t>2025-10-17T07:09:33.705290</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.269972</t>
+          <t>2025-10-17T07:09:33.705290</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.269972</t>
+          <t>2025-10-17T07:09:33.706289</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.269972</t>
+          <t>2025-10-17T07:09:33.706289</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.269972</t>
+          <t>2025-10-17T07:09:33.706289</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.269972</t>
+          <t>2025-10-17T07:09:33.706289</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.269972</t>
+          <t>2025-10-17T07:09:33.706289</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.269972</t>
+          <t>2025-10-17T07:09:33.706289</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.269972</t>
+          <t>2025-10-17T07:09:33.706289</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.269972</t>
+          <t>2025-10-17T07:09:33.706289</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.271241</t>
+          <t>2025-10-17T07:09:33.706289</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.271241</t>
+          <t>2025-10-17T07:09:33.706289</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.271241</t>
+          <t>2025-10-17T07:09:33.706289</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.271767</t>
+          <t>2025-10-17T07:09:33.707289</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.271767</t>
+          <t>2025-10-17T07:09:33.707289</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.271767</t>
+          <t>2025-10-17T07:09:33.707289</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.271767</t>
+          <t>2025-10-17T07:09:33.707289</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.271767</t>
+          <t>2025-10-17T07:09:33.707289</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.272768</t>
+          <t>2025-10-17T07:09:33.707289</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.272768</t>
+          <t>2025-10-17T07:09:33.707289</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.272768</t>
+          <t>2025-10-17T07:09:33.707289</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.272768</t>
+          <t>2025-10-17T07:09:33.707289</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.272768</t>
+          <t>2025-10-17T07:09:33.707289</t>
         </is>
       </c>
     </row>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.272768</t>
+          <t>2025-10-17T07:09:33.708292</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.272768</t>
+          <t>2025-10-17T07:09:33.708292</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.272768</t>
+          <t>2025-10-17T07:09:33.709295</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.272768</t>
+          <t>2025-10-17T07:09:33.710296</t>
         </is>
       </c>
     </row>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.273764</t>
+          <t>2025-10-17T07:09:33.710296</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.273764</t>
+          <t>2025-10-17T07:09:33.710989</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.273764</t>
+          <t>2025-10-17T07:09:33.710989</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.273764</t>
+          <t>2025-10-17T07:09:33.710989</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.273764</t>
+          <t>2025-10-17T07:09:33.710989</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.273764</t>
+          <t>2025-10-17T07:09:33.711503</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.273764</t>
+          <t>2025-10-17T07:09:33.711503</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.273764</t>
+          <t>2025-10-17T07:09:33.711503</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.273764</t>
+          <t>2025-10-17T07:09:33.712251</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.274764</t>
+          <t>2025-10-17T07:09:33.712251</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.274764</t>
+          <t>2025-10-17T07:09:33.712251</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.274764</t>
+          <t>2025-10-17T07:09:33.712770</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.375126</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.375126</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.375126</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.375126</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.375126</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.376126</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.376126</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.376126</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.376126</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.376126</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.376126</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.376126</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.376126</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.376126</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.377233</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.377233</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.377233</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.378238</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.378238</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.379237</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.379237</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.380236</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.380236</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -6885,7 +6885,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.380236</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.380236</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.380236</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.381235</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.381235</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.381235</t>
+          <t>2025-10-17T07:09:33.792320</t>
         </is>
       </c>
     </row>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.510986</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.510986</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7637,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.510986</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.510986</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -7825,7 +7825,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.511985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.511985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.511985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.511985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.511985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.512985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -8381,7 +8381,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.512985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.512985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -8565,7 +8565,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.512985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.512985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.513985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.513985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.513985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.513985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.513985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.514985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.514985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.514985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.514985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -9595,7 +9595,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.514985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -9685,7 +9685,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.515985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -9779,7 +9779,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.515985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.515985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -9967,7 +9967,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.515985</t>
+          <t>2025-10-17T07:09:33.880392</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.605695</t>
+          <t>2025-10-17T07:09:33.991598</t>
         </is>
       </c>
     </row>
@@ -10155,7 +10155,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.606696</t>
+          <t>2025-10-17T07:09:33.993631</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.606696</t>
+          <t>2025-10-17T07:09:33.993631</t>
         </is>
       </c>
     </row>
@@ -10339,7 +10339,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.606696</t>
+          <t>2025-10-17T07:09:33.994146</t>
         </is>
       </c>
     </row>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.607695</t>
+          <t>2025-10-17T07:09:33.994146</t>
         </is>
       </c>
     </row>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.607695</t>
+          <t>2025-10-17T07:09:33.994146</t>
         </is>
       </c>
     </row>
@@ -10621,7 +10621,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.607695</t>
+          <t>2025-10-17T07:09:33.994146</t>
         </is>
       </c>
     </row>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.607695</t>
+          <t>2025-10-17T07:09:33.994146</t>
         </is>
       </c>
     </row>
@@ -10809,7 +10809,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.608694</t>
+          <t>2025-10-17T07:09:33.994146</t>
         </is>
       </c>
     </row>
@@ -10903,7 +10903,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:16.608694</t>
+          <t>2025-10-17T07:09:33.994146</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R50_Pentropia.xlsx
@@ -584,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H2" t="n">
         <v>0.9852281360342515</v>
@@ -601,7 +601,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L2" t="n">
         <v>0.9852281360342515</v>
@@ -655,7 +655,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.705290</t>
+          <t>2025-10-19T23:55:53.009266</t>
         </is>
       </c>
     </row>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H3" t="n">
         <v>0.9852281360342515</v>
@@ -695,7 +695,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L3" t="n">
         <v>0.9852281360342515</v>
@@ -745,7 +745,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.705290</t>
+          <t>2025-10-19T23:55:53.020342</t>
         </is>
       </c>
     </row>
@@ -768,10 +768,10 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H4" t="n">
         <v>0.9852281360342515</v>
@@ -785,7 +785,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L4" t="n">
         <v>0.5916727785823274</v>
@@ -839,7 +839,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.705290</t>
+          <t>2025-10-19T23:55:53.020342</t>
         </is>
       </c>
     </row>
@@ -862,10 +862,10 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H5" t="n">
         <v>0.9852281360342515</v>
@@ -879,7 +879,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L5" t="n">
         <v>0.8631205685666311</v>
@@ -933,7 +933,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.705290</t>
+          <t>2025-10-19T23:55:53.021340</t>
         </is>
       </c>
     </row>
@@ -956,10 +956,10 @@
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H6" t="n">
         <v>0.9852281360342515</v>
@@ -973,7 +973,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L6" t="n">
         <v>0.5916727785823274</v>
@@ -1023,7 +1023,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.705290</t>
+          <t>2025-10-19T23:55:53.021340</t>
         </is>
       </c>
     </row>
@@ -1046,10 +1046,10 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H7" t="n">
         <v>0.9852281360342515</v>
@@ -1063,7 +1063,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L7" t="n">
         <v>0.8631205685666311</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.705290</t>
+          <t>2025-10-19T23:55:53.021340</t>
         </is>
       </c>
     </row>
@@ -1140,10 +1140,10 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H8" t="n">
         <v>0.9852281360342515</v>
@@ -1157,7 +1157,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L8" t="n">
         <v>0.5916727785823274</v>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.705290</t>
+          <t>2025-10-19T23:55:53.021340</t>
         </is>
       </c>
     </row>
@@ -1234,10 +1234,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H9" t="n">
         <v>0.9852281360342515</v>
@@ -1251,7 +1251,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L9" t="n">
         <v>0.5916727785823274</v>
@@ -1301,7 +1301,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.706289</t>
+          <t>2025-10-19T23:55:53.021340</t>
         </is>
       </c>
     </row>
@@ -1324,10 +1324,10 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H10" t="n">
         <v>0.9852281360342515</v>
@@ -1341,7 +1341,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L10" t="n">
         <v>0.5916727785823274</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.706289</t>
+          <t>2025-10-19T23:55:53.022144</t>
         </is>
       </c>
     </row>
@@ -1418,10 +1418,10 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H11" t="n">
         <v>0.9852281360342515</v>
@@ -1435,7 +1435,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L11" t="n">
         <v>0.9852281360342515</v>
@@ -1485,7 +1485,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.706289</t>
+          <t>2025-10-19T23:55:53.022144</t>
         </is>
       </c>
     </row>
@@ -1508,10 +1508,10 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H12" t="n">
         <v>0.9852281360342515</v>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.706289</t>
+          <t>2025-10-19T23:55:53.022678</t>
         </is>
       </c>
     </row>
@@ -1602,10 +1602,10 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H13" t="n">
         <v>0.9852281360342515</v>
@@ -1619,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.706289</t>
+          <t>2025-10-19T23:55:53.022678</t>
         </is>
       </c>
     </row>
@@ -1692,10 +1692,10 @@
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H14" t="n">
         <v>0.9852281360342515</v>
@@ -1709,7 +1709,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L14" t="n">
         <v>0.9852281360342515</v>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.706289</t>
+          <t>2025-10-19T23:55:53.022678</t>
         </is>
       </c>
     </row>
@@ -1786,10 +1786,10 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H15" t="n">
         <v>0.9852281360342515</v>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.706289</t>
+          <t>2025-10-19T23:55:53.022678</t>
         </is>
       </c>
     </row>
@@ -1880,10 +1880,10 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H16" t="n">
         <v>0.9852281360342515</v>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.706289</t>
+          <t>2025-10-19T23:55:53.022678</t>
         </is>
       </c>
     </row>
@@ -1974,10 +1974,10 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H17" t="n">
         <v>0.9852281360342515</v>
@@ -1991,7 +1991,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L17" t="n">
         <v>0.8631205685666311</v>
@@ -2041,7 +2041,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.706289</t>
+          <t>2025-10-19T23:55:53.023671</t>
         </is>
       </c>
     </row>
@@ -2064,10 +2064,10 @@
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H18" t="n">
         <v>0.9852281360342515</v>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.706289</t>
+          <t>2025-10-19T23:55:53.023671</t>
         </is>
       </c>
     </row>
@@ -2158,10 +2158,10 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H19" t="n">
         <v>0.9852281360342515</v>
@@ -2175,7 +2175,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L19" t="n">
         <v>0.8631205685666311</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.706289</t>
+          <t>2025-10-19T23:55:53.023671</t>
         </is>
       </c>
     </row>
@@ -2252,10 +2252,10 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H20" t="n">
         <v>0.9852281360342515</v>
@@ -2269,7 +2269,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L20" t="n">
         <v>0.5916727785823274</v>
@@ -2319,7 +2319,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.707289</t>
+          <t>2025-10-19T23:55:53.023671</t>
         </is>
       </c>
     </row>
@@ -2342,10 +2342,10 @@
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H21" t="n">
         <v>0.9852281360342515</v>
@@ -2359,7 +2359,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L21" t="n">
         <v>0.9852281360342515</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.707289</t>
+          <t>2025-10-19T23:55:53.023671</t>
         </is>
       </c>
     </row>
@@ -2436,10 +2436,10 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H22" t="n">
         <v>0.9852281360342515</v>
@@ -2453,7 +2453,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L22" t="n">
         <v>0.5916727785823274</v>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.707289</t>
+          <t>2025-10-19T23:55:53.024669</t>
         </is>
       </c>
     </row>
@@ -2530,10 +2530,10 @@
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H23" t="n">
         <v>0.9852281360342515</v>
@@ -2547,7 +2547,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L23" t="n">
         <v>0.5916727785823274</v>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.707289</t>
+          <t>2025-10-19T23:55:53.024669</t>
         </is>
       </c>
     </row>
@@ -2624,10 +2624,10 @@
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H24" t="n">
         <v>0.9852281360342515</v>
@@ -2641,7 +2641,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L24" t="n">
         <v>0.9852281360342515</v>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.707289</t>
+          <t>2025-10-19T23:55:53.024669</t>
         </is>
       </c>
     </row>
@@ -2718,10 +2718,10 @@
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H25" t="n">
         <v>0.9852281360342515</v>
@@ -2735,7 +2735,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L25" t="n">
         <v>0.5916727785823274</v>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.707289</t>
+          <t>2025-10-19T23:55:53.024669</t>
         </is>
       </c>
     </row>
@@ -2812,10 +2812,10 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H26" t="n">
         <v>0.9852281360342515</v>
@@ -2829,7 +2829,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L26" t="n">
         <v>0.8631205685666311</v>
@@ -2879,7 +2879,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.707289</t>
+          <t>2025-10-19T23:55:53.024669</t>
         </is>
       </c>
     </row>
@@ -2902,10 +2902,10 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H27" t="n">
         <v>0.9852281360342515</v>
@@ -2919,7 +2919,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L27" t="n">
         <v>0.8631205685666311</v>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.707289</t>
+          <t>2025-10-19T23:55:53.025670</t>
         </is>
       </c>
     </row>
@@ -2996,10 +2996,10 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H28" t="n">
         <v>0.9852281360342515</v>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.707289</t>
+          <t>2025-10-19T23:55:53.025670</t>
         </is>
       </c>
     </row>
@@ -3090,10 +3090,10 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H29" t="n">
         <v>0.9852281360342515</v>
@@ -3107,7 +3107,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L29" t="n">
         <v>0.9852281360342515</v>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.707289</t>
+          <t>2025-10-19T23:55:53.025670</t>
         </is>
       </c>
     </row>
@@ -3184,10 +3184,10 @@
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H30" t="n">
         <v>0.9852281360342515</v>
@@ -3201,7 +3201,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L30" t="n">
         <v>0.8631205685666311</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.708292</t>
+          <t>2025-10-19T23:55:53.025670</t>
         </is>
       </c>
     </row>
@@ -3278,10 +3278,10 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H31" t="n">
         <v>0.9852281360342515</v>
@@ -3295,7 +3295,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L31" t="n">
         <v>0.5916727785823274</v>
@@ -3345,7 +3345,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.708292</t>
+          <t>2025-10-19T23:55:53.025670</t>
         </is>
       </c>
     </row>
@@ -3368,10 +3368,10 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H32" t="n">
         <v>0.9852281360342515</v>
@@ -3385,7 +3385,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L32" t="n">
         <v>0.8631205685666311</v>
@@ -3435,7 +3435,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.709295</t>
+          <t>2025-10-19T23:55:53.025670</t>
         </is>
       </c>
     </row>
@@ -3458,10 +3458,10 @@
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H33" t="n">
         <v>0.9852281360342515</v>
@@ -3475,7 +3475,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L33" t="n">
         <v>0.9852281360342515</v>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.710296</t>
+          <t>2025-10-19T23:55:53.026669</t>
         </is>
       </c>
     </row>
@@ -3552,10 +3552,10 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H34" t="n">
         <v>0.9852281360342515</v>
@@ -3569,7 +3569,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L34" t="n">
         <v>0.9852281360342515</v>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.710296</t>
+          <t>2025-10-19T23:55:53.026669</t>
         </is>
       </c>
     </row>
@@ -3646,10 +3646,10 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H35" t="n">
         <v>0.9852281360342515</v>
@@ -3663,7 +3663,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L35" t="n">
         <v>0.8631205685666311</v>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.710989</t>
+          <t>2025-10-19T23:55:53.026669</t>
         </is>
       </c>
     </row>
@@ -3740,10 +3740,10 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H36" t="n">
         <v>0.9852281360342515</v>
@@ -3757,7 +3757,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K36" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L36" t="n">
         <v>0.9852281360342515</v>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.710989</t>
+          <t>2025-10-19T23:55:53.026669</t>
         </is>
       </c>
     </row>
@@ -3834,10 +3834,10 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H37" t="n">
         <v>0.9852281360342515</v>
@@ -3851,7 +3851,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L37" t="n">
         <v>0.5916727785823274</v>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.710989</t>
+          <t>2025-10-19T23:55:53.026669</t>
         </is>
       </c>
     </row>
@@ -3928,10 +3928,10 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H38" t="n">
         <v>0.9852281360342515</v>
@@ -3945,7 +3945,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L38" t="n">
         <v>0.9852281360342515</v>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.710989</t>
+          <t>2025-10-19T23:55:53.026669</t>
         </is>
       </c>
     </row>
@@ -4022,10 +4022,10 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H39" t="n">
         <v>0.9852281360342515</v>
@@ -4039,7 +4039,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L39" t="n">
         <v>0.9852281360342515</v>
@@ -4089,7 +4089,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.711503</t>
+          <t>2025-10-19T23:55:53.027668</t>
         </is>
       </c>
     </row>
@@ -4112,10 +4112,10 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H40" t="n">
         <v>0.9852281360342515</v>
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.711503</t>
+          <t>2025-10-19T23:55:53.027668</t>
         </is>
       </c>
     </row>
@@ -4206,10 +4206,10 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H41" t="n">
         <v>0.9852281360342515</v>
@@ -4223,7 +4223,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K41" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L41" t="n">
         <v>0.5916727785823274</v>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.711503</t>
+          <t>2025-10-19T23:55:53.027668</t>
         </is>
       </c>
     </row>
@@ -4300,10 +4300,10 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H42" t="n">
         <v>0.9852281360342515</v>
@@ -4317,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.712251</t>
+          <t>2025-10-19T23:55:53.027668</t>
         </is>
       </c>
     </row>
@@ -4394,10 +4394,10 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H43" t="n">
         <v>0.9852281360342515</v>
@@ -4411,7 +4411,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L43" t="n">
         <v>0.8631205685666311</v>
@@ -4461,7 +4461,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.712251</t>
+          <t>2025-10-19T23:55:53.027668</t>
         </is>
       </c>
     </row>
@@ -4484,10 +4484,10 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H44" t="n">
         <v>0.9852281360342515</v>
@@ -4501,7 +4501,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L44" t="n">
         <v>0.5916727785823274</v>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.712251</t>
+          <t>2025-10-19T23:55:53.028668</t>
         </is>
       </c>
     </row>
@@ -4578,10 +4578,10 @@
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>0.930447538772135</v>
+        <v>0.928947540280481</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H45" t="n">
         <v>0.9852281360342515</v>
@@ -4595,7 +4595,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L45" t="n">
         <v>0.5916727785823274</v>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.712770</t>
+          <t>2025-10-19T23:55:53.028668</t>
         </is>
       </c>
     </row>
@@ -4672,10 +4672,10 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H46" t="n">
         <v>0.8631205685666311</v>
@@ -4689,7 +4689,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K46" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L46" t="n">
         <v>0.8631205685666311</v>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.133460</t>
         </is>
       </c>
     </row>
@@ -4766,10 +4766,10 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H47" t="n">
         <v>0.8631205685666311</v>
@@ -4783,7 +4783,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K47" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L47" t="n">
         <v>0.8631205685666311</v>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.134470</t>
         </is>
       </c>
     </row>
@@ -4860,10 +4860,10 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H48" t="n">
         <v>0.8631205685666311</v>
@@ -4877,7 +4877,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K48" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L48" t="n">
         <v>0.5916727785823274</v>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.135462</t>
         </is>
       </c>
     </row>
@@ -4954,10 +4954,10 @@
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H49" t="n">
         <v>0.8631205685666311</v>
@@ -4971,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.135462</t>
         </is>
       </c>
     </row>
@@ -5048,10 +5048,10 @@
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H50" t="n">
         <v>0.8631205685666311</v>
@@ -5065,7 +5065,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L50" t="n">
         <v>0.5916727785823274</v>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.136481</t>
         </is>
       </c>
     </row>
@@ -5142,10 +5142,10 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H51" t="n">
         <v>0.8631205685666311</v>
@@ -5159,7 +5159,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K51" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L51" t="n">
         <v>0.5916727785823274</v>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.137485</t>
         </is>
       </c>
     </row>
@@ -5236,10 +5236,10 @@
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H52" t="n">
         <v>0.8631205685666311</v>
@@ -5253,7 +5253,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K52" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L52" t="n">
         <v>0.8631205685666311</v>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.138463</t>
         </is>
       </c>
     </row>
@@ -5330,10 +5330,10 @@
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H53" t="n">
         <v>0.8631205685666311</v>
@@ -5347,7 +5347,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K53" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L53" t="n">
         <v>0.8631205685666311</v>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.138463</t>
         </is>
       </c>
     </row>
@@ -5424,10 +5424,10 @@
         <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H54" t="n">
         <v>0.8631205685666311</v>
@@ -5441,7 +5441,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K54" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L54" t="n">
         <v>0.8631205685666311</v>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.138463</t>
         </is>
       </c>
     </row>
@@ -5518,10 +5518,10 @@
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H55" t="n">
         <v>0.8631205685666311</v>
@@ -5535,7 +5535,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K55" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L55" t="n">
         <v>0.8631205685666311</v>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.139459</t>
         </is>
       </c>
     </row>
@@ -5612,10 +5612,10 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H56" t="n">
         <v>0.8631205685666311</v>
@@ -5629,7 +5629,7 @@
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.139459</t>
         </is>
       </c>
     </row>
@@ -5706,10 +5706,10 @@
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H57" t="n">
         <v>0.8631205685666311</v>
@@ -5723,7 +5723,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K57" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L57" t="n">
         <v>0.8631205685666311</v>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.139459</t>
         </is>
       </c>
     </row>
@@ -5800,10 +5800,10 @@
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H58" t="n">
         <v>0.8631205685666311</v>
@@ -5817,7 +5817,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L58" t="n">
         <v>0.8631205685666311</v>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.139459</t>
         </is>
       </c>
     </row>
@@ -5894,10 +5894,10 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H59" t="n">
         <v>0.8631205685666311</v>
@@ -5911,7 +5911,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L59" t="n">
         <v>0.8631205685666311</v>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.139459</t>
         </is>
       </c>
     </row>
@@ -5988,10 +5988,10 @@
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H60" t="n">
         <v>0.8631205685666311</v>
@@ -6005,7 +6005,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L60" t="n">
         <v>0.9852281360342515</v>
@@ -6055,7 +6055,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.139459</t>
         </is>
       </c>
     </row>
@@ -6078,10 +6078,10 @@
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G61" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H61" t="n">
         <v>0.8631205685666311</v>
@@ -6095,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.140457</t>
         </is>
       </c>
     </row>
@@ -6172,10 +6172,10 @@
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G62" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H62" t="n">
         <v>0.8631205685666311</v>
@@ -6189,7 +6189,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.140457</t>
         </is>
       </c>
     </row>
@@ -6266,10 +6266,10 @@
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H63" t="n">
         <v>0.8631205685666311</v>
@@ -6283,7 +6283,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K63" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L63" t="n">
         <v>0.9852281360342515</v>
@@ -6333,7 +6333,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.140457</t>
         </is>
       </c>
     </row>
@@ -6356,10 +6356,10 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G64" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H64" t="n">
         <v>0.8631205685666311</v>
@@ -6373,7 +6373,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L64" t="n">
         <v>0.9852281360342515</v>
@@ -6423,7 +6423,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.140457</t>
         </is>
       </c>
     </row>
@@ -6446,10 +6446,10 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G65" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H65" t="n">
         <v>0.8631205685666311</v>
@@ -6463,7 +6463,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K65" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L65" t="n">
         <v>0.9852281360342515</v>
@@ -6513,7 +6513,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.140457</t>
         </is>
       </c>
     </row>
@@ -6536,10 +6536,10 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H66" t="n">
         <v>0.8631205685666311</v>
@@ -6553,7 +6553,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K66" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L66" t="n">
         <v>0.8631205685666311</v>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.141458</t>
         </is>
       </c>
     </row>
@@ -6630,10 +6630,10 @@
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H67" t="n">
         <v>0.8631205685666311</v>
@@ -6647,7 +6647,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K67" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L67" t="n">
         <v>0.8631205685666311</v>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.141458</t>
         </is>
       </c>
     </row>
@@ -6724,10 +6724,10 @@
         <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H68" t="n">
         <v>0.8631205685666311</v>
@@ -6741,7 +6741,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K68" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L68" t="n">
         <v>0.5916727785823274</v>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.141458</t>
         </is>
       </c>
     </row>
@@ -6818,10 +6818,10 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H69" t="n">
         <v>0.8631205685666311</v>
@@ -6835,7 +6835,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K69" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L69" t="n">
         <v>0.8631205685666311</v>
@@ -6885,7 +6885,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.142459</t>
         </is>
       </c>
     </row>
@@ -6908,10 +6908,10 @@
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G70" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H70" t="n">
         <v>0.8631205685666311</v>
@@ -6925,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.142459</t>
         </is>
       </c>
     </row>
@@ -7002,10 +7002,10 @@
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H71" t="n">
         <v>0.8631205685666311</v>
@@ -7019,7 +7019,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K71" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L71" t="n">
         <v>0.8631205685666311</v>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.142459</t>
         </is>
       </c>
     </row>
@@ -7096,10 +7096,10 @@
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H72" t="n">
         <v>0.8631205685666311</v>
@@ -7113,7 +7113,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K72" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L72" t="n">
         <v>0.8631205685666311</v>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.142459</t>
         </is>
       </c>
     </row>
@@ -7190,10 +7190,10 @@
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H73" t="n">
         <v>0.8631205685666311</v>
@@ -7207,7 +7207,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K73" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L73" t="n">
         <v>0.5916727785823274</v>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.143459</t>
         </is>
       </c>
     </row>
@@ -7284,10 +7284,10 @@
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9339315801564865</v>
+        <v>0.9324382446555785</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H74" t="n">
         <v>0.8631205685666311</v>
@@ -7301,7 +7301,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K74" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L74" t="n">
         <v>0.8631205685666311</v>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.792320</t>
+          <t>2025-10-19T23:55:53.143459</t>
         </is>
       </c>
     </row>
@@ -7378,10 +7378,10 @@
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H75" t="n">
         <v>0.8631205685666311</v>
@@ -7395,7 +7395,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K75" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L75" t="n">
         <v>0.5916727785823274</v>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.285424</t>
         </is>
       </c>
     </row>
@@ -7472,10 +7472,10 @@
         <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H76" t="n">
         <v>0.8631205685666311</v>
@@ -7489,7 +7489,7 @@
         <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.286443</t>
         </is>
       </c>
     </row>
@@ -7566,10 +7566,10 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G77" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H77" t="n">
         <v>0.8631205685666311</v>
@@ -7583,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -7637,7 +7637,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.286443</t>
         </is>
       </c>
     </row>
@@ -7660,10 +7660,10 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H78" t="n">
         <v>0.8631205685666311</v>
@@ -7677,7 +7677,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K78" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L78" t="n">
         <v>0.8631205685666311</v>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.286443</t>
         </is>
       </c>
     </row>
@@ -7754,10 +7754,10 @@
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G79" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H79" t="n">
         <v>0.8631205685666311</v>
@@ -7771,7 +7771,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K79" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L79" t="n">
         <v>0.8631205685666311</v>
@@ -7825,7 +7825,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.286443</t>
         </is>
       </c>
     </row>
@@ -7848,10 +7848,10 @@
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G80" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H80" t="n">
         <v>0.8631205685666311</v>
@@ -7865,7 +7865,7 @@
         <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.287431</t>
         </is>
       </c>
     </row>
@@ -7942,10 +7942,10 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G81" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H81" t="n">
         <v>0.8631205685666311</v>
@@ -7959,7 +7959,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K81" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L81" t="n">
         <v>0.5916727785823274</v>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.287431</t>
         </is>
       </c>
     </row>
@@ -8036,10 +8036,10 @@
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G82" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H82" t="n">
         <v>0.8631205685666311</v>
@@ -8053,7 +8053,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K82" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L82" t="n">
         <v>0.9852281360342515</v>
@@ -8103,7 +8103,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.287431</t>
         </is>
       </c>
     </row>
@@ -8126,10 +8126,10 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G83" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H83" t="n">
         <v>0.8631205685666311</v>
@@ -8143,7 +8143,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K83" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L83" t="n">
         <v>0.5916727785823274</v>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.287431</t>
         </is>
       </c>
     </row>
@@ -8220,10 +8220,10 @@
         <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G84" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H84" t="n">
         <v>0.8631205685666311</v>
@@ -8237,7 +8237,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K84" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L84" t="n">
         <v>0.8631205685666311</v>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.287431</t>
         </is>
       </c>
     </row>
@@ -8314,10 +8314,10 @@
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G85" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H85" t="n">
         <v>0.8631205685666311</v>
@@ -8331,7 +8331,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K85" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L85" t="n">
         <v>0.9852281360342515</v>
@@ -8381,7 +8381,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.288957</t>
         </is>
       </c>
     </row>
@@ -8404,10 +8404,10 @@
         <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H86" t="n">
         <v>0.8631205685666311</v>
@@ -8421,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.288957</t>
         </is>
       </c>
     </row>
@@ -8498,10 +8498,10 @@
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G87" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H87" t="n">
         <v>0.8631205685666311</v>
@@ -8515,7 +8515,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K87" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L87" t="n">
         <v>0.9852281360342515</v>
@@ -8565,7 +8565,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.288957</t>
         </is>
       </c>
     </row>
@@ -8588,10 +8588,10 @@
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H88" t="n">
         <v>0.8631205685666311</v>
@@ -8605,7 +8605,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K88" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L88" t="n">
         <v>0.8631205685666311</v>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.289492</t>
         </is>
       </c>
     </row>
@@ -8682,10 +8682,10 @@
         <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G89" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H89" t="n">
         <v>0.8631205685666311</v>
@@ -8699,7 +8699,7 @@
         <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.289492</t>
         </is>
       </c>
     </row>
@@ -8776,10 +8776,10 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G90" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H90" t="n">
         <v>0.8631205685666311</v>
@@ -8793,7 +8793,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K90" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L90" t="n">
         <v>0.8631205685666311</v>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.289492</t>
         </is>
       </c>
     </row>
@@ -8870,10 +8870,10 @@
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G91" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H91" t="n">
         <v>0.8631205685666311</v>
@@ -8887,7 +8887,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K91" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L91" t="n">
         <v>0.8631205685666311</v>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.289492</t>
         </is>
       </c>
     </row>
@@ -8964,10 +8964,10 @@
         <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G92" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H92" t="n">
         <v>0.8631205685666311</v>
@@ -8981,7 +8981,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K92" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L92" t="n">
         <v>0.5916727785823274</v>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.290493</t>
         </is>
       </c>
     </row>
@@ -9058,10 +9058,10 @@
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G93" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H93" t="n">
         <v>0.8631205685666311</v>
@@ -9075,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.290493</t>
         </is>
       </c>
     </row>
@@ -9152,10 +9152,10 @@
         <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G94" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H94" t="n">
         <v>0.8631205685666311</v>
@@ -9169,7 +9169,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K94" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L94" t="n">
         <v>0.8631205685666311</v>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.290493</t>
         </is>
       </c>
     </row>
@@ -9246,10 +9246,10 @@
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G95" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H95" t="n">
         <v>0.8631205685666311</v>
@@ -9263,7 +9263,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K95" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L95" t="n">
         <v>0.9852281360342515</v>
@@ -9313,7 +9313,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.290493</t>
         </is>
       </c>
     </row>
@@ -9336,10 +9336,10 @@
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G96" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H96" t="n">
         <v>0.8631205685666311</v>
@@ -9353,7 +9353,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.290493</t>
         </is>
       </c>
     </row>
@@ -9430,10 +9430,10 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H97" t="n">
         <v>0.8631205685666311</v>
@@ -9447,7 +9447,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K97" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L97" t="n">
         <v>0.8631205685666311</v>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.290493</t>
         </is>
       </c>
     </row>
@@ -9524,10 +9524,10 @@
         <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G98" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H98" t="n">
         <v>0.8631205685666311</v>
@@ -9541,7 +9541,7 @@
         <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -9595,7 +9595,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.291486</t>
         </is>
       </c>
     </row>
@@ -9618,10 +9618,10 @@
         <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G99" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H99" t="n">
         <v>0.8631205685666311</v>
@@ -9635,7 +9635,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K99" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L99" t="n">
         <v>0.9852281360342515</v>
@@ -9685,7 +9685,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.291486</t>
         </is>
       </c>
     </row>
@@ -9708,10 +9708,10 @@
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G100" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H100" t="n">
         <v>0.8631205685666311</v>
@@ -9725,7 +9725,7 @@
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -9779,7 +9779,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.291486</t>
         </is>
       </c>
     </row>
@@ -9802,10 +9802,10 @@
         <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G101" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H101" t="n">
         <v>0.8631205685666311</v>
@@ -9819,7 +9819,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K101" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L101" t="n">
         <v>0.5916727785823274</v>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.291486</t>
         </is>
       </c>
     </row>
@@ -9896,10 +9896,10 @@
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9224409501469266</v>
+        <v>0.9220334100849285</v>
       </c>
       <c r="G102" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H102" t="n">
         <v>0.8631205685666311</v>
@@ -9913,7 +9913,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K102" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L102" t="n">
         <v>0.8631205685666311</v>
@@ -9967,7 +9967,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.880392</t>
+          <t>2025-10-19T23:55:53.291486</t>
         </is>
       </c>
     </row>
@@ -9990,10 +9990,10 @@
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8811437049777913</v>
+        <v>0.8726153446923122</v>
       </c>
       <c r="G103" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H103" t="n">
         <v>0.5916727785823274</v>
@@ -10007,7 +10007,7 @@
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.991598</t>
+          <t>2025-10-19T23:55:53.360484</t>
         </is>
       </c>
     </row>
@@ -10084,10 +10084,10 @@
         <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8811437049777913</v>
+        <v>0.8726153446923122</v>
       </c>
       <c r="G104" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H104" t="n">
         <v>0.5916727785823274</v>
@@ -10101,7 +10101,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K104" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L104" t="n">
         <v>0.5916727785823274</v>
@@ -10155,7 +10155,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.993631</t>
+          <t>2025-10-19T23:55:53.360484</t>
         </is>
       </c>
     </row>
@@ -10178,10 +10178,10 @@
         <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8811437049777913</v>
+        <v>0.8726153446923122</v>
       </c>
       <c r="G105" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H105" t="n">
         <v>0.5916727785823274</v>
@@ -10195,7 +10195,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K105" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L105" t="n">
         <v>0.5916727785823274</v>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.993631</t>
+          <t>2025-10-19T23:55:53.360484</t>
         </is>
       </c>
     </row>
@@ -10272,10 +10272,10 @@
         <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8811437049777913</v>
+        <v>0.8726153446923122</v>
       </c>
       <c r="G106" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H106" t="n">
         <v>0.5916727785823274</v>
@@ -10289,7 +10289,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K106" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L106" t="n">
         <v>0.8631205685666311</v>
@@ -10339,7 +10339,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.994146</t>
+          <t>2025-10-19T23:55:53.360484</t>
         </is>
       </c>
     </row>
@@ -10362,10 +10362,10 @@
         <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8811437049777913</v>
+        <v>0.8726153446923122</v>
       </c>
       <c r="G107" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H107" t="n">
         <v>0.5916727785823274</v>
@@ -10379,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.994146</t>
+          <t>2025-10-19T23:55:53.361486</t>
         </is>
       </c>
     </row>
@@ -10456,10 +10456,10 @@
         <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8811437049777913</v>
+        <v>0.8726153446923122</v>
       </c>
       <c r="G108" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H108" t="n">
         <v>0.5916727785823274</v>
@@ -10473,7 +10473,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.994146</t>
+          <t>2025-10-19T23:55:53.361486</t>
         </is>
       </c>
     </row>
@@ -10550,10 +10550,10 @@
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>0.8811437049777913</v>
+        <v>0.8726153446923122</v>
       </c>
       <c r="G109" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H109" t="n">
         <v>0.5916727785823274</v>
@@ -10567,7 +10567,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K109" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L109" t="n">
         <v>0.5916727785823274</v>
@@ -10621,7 +10621,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.994146</t>
+          <t>2025-10-19T23:55:53.361486</t>
         </is>
       </c>
     </row>
@@ -10644,10 +10644,10 @@
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8811437049777913</v>
+        <v>0.8726153446923122</v>
       </c>
       <c r="G110" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H110" t="n">
         <v>0.5916727785823274</v>
@@ -10661,7 +10661,7 @@
         <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.994146</t>
+          <t>2025-10-19T23:55:53.361486</t>
         </is>
       </c>
     </row>
@@ -10738,10 +10738,10 @@
         <v>7</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8811437049777913</v>
+        <v>0.8726153446923122</v>
       </c>
       <c r="G111" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H111" t="n">
         <v>0.5916727785823274</v>
@@ -10755,7 +10755,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K111" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L111" t="n">
         <v>0.5916727785823274</v>
@@ -10809,7 +10809,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.994146</t>
+          <t>2025-10-19T23:55:53.361486</t>
         </is>
       </c>
     </row>
@@ -10832,10 +10832,10 @@
         <v>7</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8811437049777913</v>
+        <v>0.8726153446923122</v>
       </c>
       <c r="G112" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H112" t="n">
         <v>0.5916727785823274</v>
@@ -10849,7 +10849,7 @@
         <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
@@ -10903,7 +10903,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:33.994146</t>
+          <t>2025-10-19T23:55:53.361486</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R50_Pentropia.xlsx
@@ -64,6 +64,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2D7D9"/>
+          <bgColor rgb="FFF2D7D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -655,7 +665,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.009266</t>
+          <t>2025-10-20T01:22:13.828233</t>
         </is>
       </c>
     </row>
@@ -745,7 +755,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.020342</t>
+          <t>2025-10-20T01:22:13.829233</t>
         </is>
       </c>
     </row>
@@ -839,7 +849,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.020342</t>
+          <t>2025-10-20T01:22:13.829233</t>
         </is>
       </c>
     </row>
@@ -933,7 +943,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.021340</t>
+          <t>2025-10-20T01:22:13.829233</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1033,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.021340</t>
+          <t>2025-10-20T01:22:13.829233</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1127,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.021340</t>
+          <t>2025-10-20T01:22:13.829233</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1221,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.021340</t>
+          <t>2025-10-20T01:22:13.830233</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1311,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.021340</t>
+          <t>2025-10-20T01:22:13.831232</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1405,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.022144</t>
+          <t>2025-10-20T01:22:13.832231</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1495,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.022144</t>
+          <t>2025-10-20T01:22:13.833230</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1589,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.022678</t>
+          <t>2025-10-20T01:22:13.834232</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1679,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.022678</t>
+          <t>2025-10-20T01:22:13.834232</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1773,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.022678</t>
+          <t>2025-10-20T01:22:13.834232</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1867,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.022678</t>
+          <t>2025-10-20T01:22:13.835230</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1961,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.022678</t>
+          <t>2025-10-20T01:22:13.835230</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2051,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.023671</t>
+          <t>2025-10-20T01:22:13.835230</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2145,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.023671</t>
+          <t>2025-10-20T01:22:13.835230</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2239,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.023671</t>
+          <t>2025-10-20T01:22:13.836230</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2329,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.023671</t>
+          <t>2025-10-20T01:22:13.836230</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2423,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.023671</t>
+          <t>2025-10-20T01:22:13.836230</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2517,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.024669</t>
+          <t>2025-10-20T01:22:13.836230</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2611,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.024669</t>
+          <t>2025-10-20T01:22:13.837230</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2705,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.024669</t>
+          <t>2025-10-20T01:22:13.837230</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2799,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.024669</t>
+          <t>2025-10-20T01:22:13.837230</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2889,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.024669</t>
+          <t>2025-10-20T01:22:13.837230</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2983,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.025670</t>
+          <t>2025-10-20T01:22:13.838232</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3077,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.025670</t>
+          <t>2025-10-20T01:22:13.838232</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3171,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.025670</t>
+          <t>2025-10-20T01:22:13.838232</t>
         </is>
       </c>
     </row>
@@ -3255,7 +3265,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.025670</t>
+          <t>2025-10-20T01:22:13.838232</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3355,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.025670</t>
+          <t>2025-10-20T01:22:13.839230</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3445,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.025670</t>
+          <t>2025-10-20T01:22:13.842234</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3539,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.026669</t>
+          <t>2025-10-20T01:22:13.843232</t>
         </is>
       </c>
     </row>
@@ -3623,7 +3633,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.026669</t>
+          <t>2025-10-20T01:22:13.844232</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3727,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.026669</t>
+          <t>2025-10-20T01:22:13.844232</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3821,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.026669</t>
+          <t>2025-10-20T01:22:13.844232</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3915,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.026669</t>
+          <t>2025-10-20T01:22:13.845234</t>
         </is>
       </c>
     </row>
@@ -3999,7 +4009,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.026669</t>
+          <t>2025-10-20T01:22:13.845234</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4099,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.027668</t>
+          <t>2025-10-20T01:22:13.845234</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4193,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.027668</t>
+          <t>2025-10-20T01:22:13.845234</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4287,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.027668</t>
+          <t>2025-10-20T01:22:13.846235</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4381,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.027668</t>
+          <t>2025-10-20T01:22:13.846235</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4471,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.027668</t>
+          <t>2025-10-20T01:22:13.846235</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4565,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.028668</t>
+          <t>2025-10-20T01:22:13.846235</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4659,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.028668</t>
+          <t>2025-10-20T01:22:13.846235</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4753,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.133460</t>
+          <t>2025-10-20T01:22:13.997282</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4847,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.134470</t>
+          <t>2025-10-20T01:22:13.997282</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4941,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.135462</t>
+          <t>2025-10-20T01:22:14.021282</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5035,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.135462</t>
+          <t>2025-10-20T01:22:14.021282</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5129,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.136481</t>
+          <t>2025-10-20T01:22:14.021282</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5223,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.137485</t>
+          <t>2025-10-20T01:22:14.022283</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5317,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.138463</t>
+          <t>2025-10-20T01:22:14.022283</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5411,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.138463</t>
+          <t>2025-10-20T01:22:14.022283</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5505,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.138463</t>
+          <t>2025-10-20T01:22:14.022283</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5599,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.139459</t>
+          <t>2025-10-20T01:22:14.022283</t>
         </is>
       </c>
     </row>
@@ -5683,7 +5693,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.139459</t>
+          <t>2025-10-20T01:22:14.022283</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5787,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.139459</t>
+          <t>2025-10-20T01:22:14.025283</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5881,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.139459</t>
+          <t>2025-10-20T01:22:14.026305</t>
         </is>
       </c>
     </row>
@@ -5965,7 +5975,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.139459</t>
+          <t>2025-10-20T01:22:14.026305</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6065,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.139459</t>
+          <t>2025-10-20T01:22:14.026305</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6159,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.140457</t>
+          <t>2025-10-20T01:22:14.026305</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6253,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.140457</t>
+          <t>2025-10-20T01:22:14.027284</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6343,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.140457</t>
+          <t>2025-10-20T01:22:14.027284</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6433,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.140457</t>
+          <t>2025-10-20T01:22:14.027284</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6523,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.140457</t>
+          <t>2025-10-20T01:22:14.027284</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6617,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.141458</t>
+          <t>2025-10-20T01:22:14.027284</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6711,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.141458</t>
+          <t>2025-10-20T01:22:14.028285</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6805,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.141458</t>
+          <t>2025-10-20T01:22:14.028285</t>
         </is>
       </c>
     </row>
@@ -6885,7 +6895,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.142459</t>
+          <t>2025-10-20T01:22:14.028285</t>
         </is>
       </c>
     </row>
@@ -6979,7 +6989,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.142459</t>
+          <t>2025-10-20T01:22:14.028285</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7083,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.142459</t>
+          <t>2025-10-20T01:22:14.028285</t>
         </is>
       </c>
     </row>
@@ -7167,7 +7177,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.142459</t>
+          <t>2025-10-20T01:22:14.028285</t>
         </is>
       </c>
     </row>
@@ -7261,7 +7271,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.143459</t>
+          <t>2025-10-20T01:22:14.030287</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7365,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.143459</t>
+          <t>2025-10-20T01:22:14.031283</t>
         </is>
       </c>
     </row>
@@ -7449,7 +7459,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.285424</t>
+          <t>2025-10-20T01:22:14.122702</t>
         </is>
       </c>
     </row>
@@ -7543,7 +7553,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.286443</t>
+          <t>2025-10-20T01:22:14.123702</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7647,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.286443</t>
+          <t>2025-10-20T01:22:14.124704</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7741,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.286443</t>
+          <t>2025-10-20T01:22:14.124704</t>
         </is>
       </c>
     </row>
@@ -7825,7 +7835,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.286443</t>
+          <t>2025-10-20T01:22:14.124704</t>
         </is>
       </c>
     </row>
@@ -7919,7 +7929,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.287431</t>
+          <t>2025-10-20T01:22:14.125704</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8023,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.287431</t>
+          <t>2025-10-20T01:22:14.125704</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8113,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.287431</t>
+          <t>2025-10-20T01:22:14.125704</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8207,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.287431</t>
+          <t>2025-10-20T01:22:14.125704</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8301,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.287431</t>
+          <t>2025-10-20T01:22:14.125704</t>
         </is>
       </c>
     </row>
@@ -8381,7 +8391,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.288957</t>
+          <t>2025-10-20T01:22:14.126704</t>
         </is>
       </c>
     </row>
@@ -8475,7 +8485,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.288957</t>
+          <t>2025-10-20T01:22:14.126704</t>
         </is>
       </c>
     </row>
@@ -8565,7 +8575,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.288957</t>
+          <t>2025-10-20T01:22:14.126704</t>
         </is>
       </c>
     </row>
@@ -8659,7 +8669,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.289492</t>
+          <t>2025-10-20T01:22:14.126704</t>
         </is>
       </c>
     </row>
@@ -8753,7 +8763,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.289492</t>
+          <t>2025-10-20T01:22:14.126704</t>
         </is>
       </c>
     </row>
@@ -8847,7 +8857,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.289492</t>
+          <t>2025-10-20T01:22:14.127703</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8951,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.289492</t>
+          <t>2025-10-20T01:22:14.127703</t>
         </is>
       </c>
     </row>
@@ -9035,7 +9045,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.290493</t>
+          <t>2025-10-20T01:22:14.127703</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9139,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.290493</t>
+          <t>2025-10-20T01:22:14.127703</t>
         </is>
       </c>
     </row>
@@ -9223,7 +9233,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.290493</t>
+          <t>2025-10-20T01:22:14.128707</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9323,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.290493</t>
+          <t>2025-10-20T01:22:14.128707</t>
         </is>
       </c>
     </row>
@@ -9407,7 +9417,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.290493</t>
+          <t>2025-10-20T01:22:14.128707</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9511,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.290493</t>
+          <t>2025-10-20T01:22:14.128707</t>
         </is>
       </c>
     </row>
@@ -9595,7 +9605,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.291486</t>
+          <t>2025-10-20T01:22:14.128707</t>
         </is>
       </c>
     </row>
@@ -9685,7 +9695,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.291486</t>
+          <t>2025-10-20T01:22:14.128707</t>
         </is>
       </c>
     </row>
@@ -9779,7 +9789,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.291486</t>
+          <t>2025-10-20T01:22:14.129709</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9883,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.291486</t>
+          <t>2025-10-20T01:22:14.129709</t>
         </is>
       </c>
     </row>
@@ -9967,7 +9977,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.291486</t>
+          <t>2025-10-20T01:22:14.129709</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10071,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.360484</t>
+          <t>2025-10-20T01:22:14.185702</t>
         </is>
       </c>
     </row>
@@ -10155,7 +10165,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.360484</t>
+          <t>2025-10-20T01:22:14.185702</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10259,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.360484</t>
+          <t>2025-10-20T01:22:14.185702</t>
         </is>
       </c>
     </row>
@@ -10339,7 +10349,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.360484</t>
+          <t>2025-10-20T01:22:14.186703</t>
         </is>
       </c>
     </row>
@@ -10433,7 +10443,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.361486</t>
+          <t>2025-10-20T01:22:14.186703</t>
         </is>
       </c>
     </row>
@@ -10527,7 +10537,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.361486</t>
+          <t>2025-10-20T01:22:14.186703</t>
         </is>
       </c>
     </row>
@@ -10621,7 +10631,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.361486</t>
+          <t>2025-10-20T01:22:14.186703</t>
         </is>
       </c>
     </row>
@@ -10715,7 +10725,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.361486</t>
+          <t>2025-10-20T01:22:14.186703</t>
         </is>
       </c>
     </row>
@@ -10809,7 +10819,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.361486</t>
+          <t>2025-10-20T01:22:14.186703</t>
         </is>
       </c>
     </row>
@@ -10903,11 +10913,16 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:53.361486</t>
+          <t>2025-10-20T01:22:14.186703</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:Z112">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>=$D2=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R50_Pentropia.xlsx
@@ -658,14 +658,14 @@
         <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4122554395138993</v>
+        <v>0.4443459042329746</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.828233</t>
+          <t>2025-10-23T11:29:55.380076</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.829233</t>
+          <t>2025-10-23T11:29:55.380076</t>
         </is>
       </c>
     </row>
@@ -842,14 +842,14 @@
         <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5215089703802877</v>
+        <v>0.5719880813472641</v>
       </c>
       <c r="Y4" t="n">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.829233</t>
+          <t>2025-10-23T11:29:55.380605</t>
         </is>
       </c>
     </row>
@@ -936,14 +936,14 @@
         <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5931264066149118</v>
+        <v>0.5884403511369705</v>
       </c>
       <c r="Y5" t="n">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.829233</t>
+          <t>2025-10-23T11:29:55.380605</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.829233</t>
+          <t>2025-10-23T11:29:55.380605</t>
         </is>
       </c>
     </row>
@@ -1120,14 +1120,14 @@
         <v>3</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5068178838750884</v>
+        <v>0.7021494605155132</v>
       </c>
       <c r="Y7" t="n">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.829233</t>
+          <t>2025-10-23T11:29:55.380605</t>
         </is>
       </c>
     </row>
@@ -1214,14 +1214,14 @@
         <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5246596253655116</v>
+        <v>0.5700077155579598</v>
       </c>
       <c r="Y8" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.830233</t>
+          <t>2025-10-23T11:29:55.380605</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.831232</t>
+          <t>2025-10-23T11:29:55.381642</t>
         </is>
       </c>
     </row>
@@ -1398,14 +1398,14 @@
         <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>0.4195344228012768</v>
+        <v>0.4031932504440429</v>
       </c>
       <c r="Y10" t="n">
         <v>211</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.832231</t>
+          <t>2025-10-23T11:29:55.381642</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.833230</t>
+          <t>2025-10-23T11:29:55.381642</t>
         </is>
       </c>
     </row>
@@ -1582,14 +1582,14 @@
         <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5614880310328125</v>
+        <v>0.4648690042010548</v>
       </c>
       <c r="Y12" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.834232</t>
+          <t>2025-10-23T11:29:55.381642</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.834232</t>
+          <t>2025-10-23T11:29:55.383164</t>
         </is>
       </c>
     </row>
@@ -1766,14 +1766,14 @@
         <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>0.3609562516316058</v>
+        <v>0.4721461166512687</v>
       </c>
       <c r="Y14" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.834232</t>
+          <t>2025-10-23T11:29:55.383164</t>
         </is>
       </c>
     </row>
@@ -1860,14 +1860,14 @@
         <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>0.4080867179076863</v>
+        <v>0.4987591192728781</v>
       </c>
       <c r="Y15" t="n">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.835230</t>
+          <t>2025-10-23T11:29:55.384164</t>
         </is>
       </c>
     </row>
@@ -1954,14 +1954,14 @@
         <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>0.4221781641623663</v>
+        <v>0.4855082036717099</v>
       </c>
       <c r="Y16" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.835230</t>
+          <t>2025-10-23T11:29:55.384164</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.835230</t>
+          <t>2025-10-23T11:29:55.384164</t>
         </is>
       </c>
     </row>
@@ -2138,14 +2138,14 @@
         <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>0.5458014336081974</v>
+        <v>0.54226839054973</v>
       </c>
       <c r="Y18" t="n">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.835230</t>
+          <t>2025-10-23T11:29:55.384164</t>
         </is>
       </c>
     </row>
@@ -2232,14 +2232,14 @@
         <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>0.5657475018303859</v>
+        <v>0.507938426477816</v>
       </c>
       <c r="Y19" t="n">
-        <v>241</v>
+        <v>48</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.836230</t>
+          <t>2025-10-23T11:29:55.384164</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.836230</t>
+          <t>2025-10-23T11:29:55.385164</t>
         </is>
       </c>
     </row>
@@ -2416,14 +2416,14 @@
         <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>0.3880304987479203</v>
+        <v>0.3482050932052023</v>
       </c>
       <c r="Y21" t="n">
         <v>96</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.836230</t>
+          <t>2025-10-23T11:29:55.385164</t>
         </is>
       </c>
     </row>
@@ -2510,14 +2510,14 @@
         <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>0.4130103185970559</v>
+        <v>0.4900998503939086</v>
       </c>
       <c r="Y22" t="n">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.836230</t>
+          <t>2025-10-23T11:29:55.385164</t>
         </is>
       </c>
     </row>
@@ -2604,14 +2604,14 @@
         <v>3</v>
       </c>
       <c r="X23" t="n">
-        <v>0.5859395304685147</v>
+        <v>0.5760935678030515</v>
       </c>
       <c r="Y23" t="n">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.837230</t>
+          <t>2025-10-23T11:29:55.385164</t>
         </is>
       </c>
     </row>
@@ -2698,14 +2698,14 @@
         <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>0.382076584607126</v>
+        <v>0.4208834758555635</v>
       </c>
       <c r="Y24" t="n">
         <v>22</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.837230</t>
+          <t>2025-10-23T11:29:55.386169</t>
         </is>
       </c>
     </row>
@@ -2792,14 +2792,14 @@
         <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>0.5630922856909668</v>
+        <v>0.4028159645430169</v>
       </c>
       <c r="Y25" t="n">
         <v>27</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.837230</t>
+          <t>2025-10-23T11:29:55.386169</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.837230</t>
+          <t>2025-10-23T11:29:55.386169</t>
         </is>
       </c>
     </row>
@@ -2976,14 +2976,14 @@
         <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>0.4561869019374762</v>
+        <v>0.5930510614528276</v>
       </c>
       <c r="Y27" t="n">
-        <v>222</v>
+        <v>69</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.838232</t>
+          <t>2025-10-23T11:29:55.386169</t>
         </is>
       </c>
     </row>
@@ -3070,14 +3070,14 @@
         <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>0.4944429850323899</v>
+        <v>0.5122486851695403</v>
       </c>
       <c r="Y28" t="n">
         <v>171</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.838232</t>
+          <t>2025-10-23T11:29:55.387167</t>
         </is>
       </c>
     </row>
@@ -3164,14 +3164,14 @@
         <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>0.6636006949943728</v>
+        <v>0.371259567615395</v>
       </c>
       <c r="Y29" t="n">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.838232</t>
+          <t>2025-10-23T11:29:55.387167</t>
         </is>
       </c>
     </row>
@@ -3258,14 +3258,14 @@
         <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>0.5684569549189997</v>
+        <v>0.5939169255529118</v>
       </c>
       <c r="Y30" t="n">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.838232</t>
+          <t>2025-10-23T11:29:55.387688</t>
         </is>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.839230</t>
+          <t>2025-10-23T11:29:55.388202</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.842234</t>
+          <t>2025-10-23T11:29:55.388202</t>
         </is>
       </c>
     </row>
@@ -3532,14 +3532,14 @@
         <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>0.3579502905827536</v>
+        <v>0.4197730932977072</v>
       </c>
       <c r="Y33" t="n">
         <v>94</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.843232</t>
+          <t>2025-10-23T11:29:55.388202</t>
         </is>
       </c>
     </row>
@@ -3626,14 +3626,14 @@
         <v>2</v>
       </c>
       <c r="X34" t="n">
-        <v>0.3455870325083883</v>
+        <v>0.3544264498769271</v>
       </c>
       <c r="Y34" t="n">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.844232</t>
+          <t>2025-10-23T11:29:55.388202</t>
         </is>
       </c>
     </row>
@@ -3720,14 +3720,14 @@
         <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4127116700572048</v>
+        <v>0.4190820232980823</v>
       </c>
       <c r="Y35" t="n">
-        <v>53</v>
+        <v>241</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.844232</t>
+          <t>2025-10-23T11:29:55.388202</t>
         </is>
       </c>
     </row>
@@ -3814,14 +3814,14 @@
         <v>2</v>
       </c>
       <c r="X36" t="n">
-        <v>0.4275114942710426</v>
+        <v>0.4182595575415454</v>
       </c>
       <c r="Y36" t="n">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.844232</t>
+          <t>2025-10-23T11:29:55.389435</t>
         </is>
       </c>
     </row>
@@ -3908,14 +3908,14 @@
         <v>2</v>
       </c>
       <c r="X37" t="n">
-        <v>0.5454543991712841</v>
+        <v>0.519579995762217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.845234</t>
+          <t>2025-10-23T11:29:55.389435</t>
         </is>
       </c>
     </row>
@@ -4002,14 +4002,14 @@
         <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>0.3239730734667365</v>
+        <v>0.4384872065780541</v>
       </c>
       <c r="Y38" t="n">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.845234</t>
+          <t>2025-10-23T11:29:55.389435</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.845234</t>
+          <t>2025-10-23T11:29:55.389435</t>
         </is>
       </c>
     </row>
@@ -4186,14 +4186,14 @@
         <v>4</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4628711962152653</v>
+        <v>0.4950740446364224</v>
       </c>
       <c r="Y40" t="n">
         <v>123</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.845234</t>
+          <t>2025-10-23T11:29:55.390223</t>
         </is>
       </c>
     </row>
@@ -4280,14 +4280,14 @@
         <v>2</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4777354579378964</v>
+        <v>0.5689067697356303</v>
       </c>
       <c r="Y41" t="n">
         <v>21</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.846235</t>
+          <t>2025-10-23T11:29:55.390223</t>
         </is>
       </c>
     </row>
@@ -4374,14 +4374,14 @@
         <v>1</v>
       </c>
       <c r="X42" t="n">
-        <v>0.560439396150808</v>
+        <v>0.4592547011408165</v>
       </c>
       <c r="Y42" t="n">
         <v>223</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.846235</t>
+          <t>2025-10-23T11:29:55.390223</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.846235</t>
+          <t>2025-10-23T11:29:55.390223</t>
         </is>
       </c>
     </row>
@@ -4558,14 +4558,14 @@
         <v>2</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4457596330983245</v>
+        <v>0.4406122449469539</v>
       </c>
       <c r="Y44" t="n">
         <v>46</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.846235</t>
+          <t>2025-10-23T11:29:55.391220</t>
         </is>
       </c>
     </row>
@@ -4652,14 +4652,14 @@
         <v>5</v>
       </c>
       <c r="X45" t="n">
-        <v>0.5885819407825038</v>
+        <v>0.4488251044495549</v>
       </c>
       <c r="Y45" t="n">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.846235</t>
+          <t>2025-10-23T11:29:55.391220</t>
         </is>
       </c>
     </row>
@@ -4746,14 +4746,14 @@
         <v>2</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4479123781333945</v>
+        <v>0.5268702689402728</v>
       </c>
       <c r="Y46" t="n">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.997282</t>
+          <t>2025-10-23T11:29:55.468640</t>
         </is>
       </c>
     </row>
@@ -4840,14 +4840,14 @@
         <v>2</v>
       </c>
       <c r="X47" t="n">
-        <v>0.4978905520555126</v>
+        <v>0.5061869166634273</v>
       </c>
       <c r="Y47" t="n">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:13.997282</t>
+          <t>2025-10-23T11:29:55.469643</t>
         </is>
       </c>
     </row>
@@ -4934,14 +4934,14 @@
         <v>5</v>
       </c>
       <c r="X48" t="n">
-        <v>0.4329311706285884</v>
+        <v>0.4013904261062382</v>
       </c>
       <c r="Y48" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.021282</t>
+          <t>2025-10-23T11:29:55.469643</t>
         </is>
       </c>
     </row>
@@ -5028,14 +5028,14 @@
         <v>5</v>
       </c>
       <c r="X49" t="n">
-        <v>0.4153959819657586</v>
+        <v>0.5885707141115961</v>
       </c>
       <c r="Y49" t="n">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.021282</t>
+          <t>2025-10-23T11:29:55.469643</t>
         </is>
       </c>
     </row>
@@ -5122,14 +5122,14 @@
         <v>2</v>
       </c>
       <c r="X50" t="n">
-        <v>0.5995480970097884</v>
+        <v>0.4569680988754936</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.021282</t>
+          <t>2025-10-23T11:29:55.470644</t>
         </is>
       </c>
     </row>
@@ -5216,14 +5216,14 @@
         <v>1</v>
       </c>
       <c r="X51" t="n">
-        <v>0.5185393447758787</v>
+        <v>0.4484110543023001</v>
       </c>
       <c r="Y51" t="n">
         <v>17</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.022283</t>
+          <t>2025-10-23T11:29:55.470644</t>
         </is>
       </c>
     </row>
@@ -5310,14 +5310,14 @@
         <v>6</v>
       </c>
       <c r="X52" t="n">
-        <v>0.5424541179848884</v>
+        <v>0.4994497011784771</v>
       </c>
       <c r="Y52" t="n">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.022283</t>
+          <t>2025-10-23T11:29:55.470644</t>
         </is>
       </c>
     </row>
@@ -5404,14 +5404,14 @@
         <v>3</v>
       </c>
       <c r="X53" t="n">
-        <v>0.4028159645430169</v>
+        <v>0.4011044234247205</v>
       </c>
       <c r="Y53" t="n">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.022283</t>
+          <t>2025-10-23T11:29:55.470644</t>
         </is>
       </c>
     </row>
@@ -5498,14 +5498,14 @@
         <v>2</v>
       </c>
       <c r="X54" t="n">
-        <v>0.4444215620941461</v>
+        <v>0.4969659942717967</v>
       </c>
       <c r="Y54" t="n">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.022283</t>
+          <t>2025-10-23T11:29:55.470644</t>
         </is>
       </c>
     </row>
@@ -5592,14 +5592,14 @@
         <v>4</v>
       </c>
       <c r="X55" t="n">
-        <v>0.4591267371675428</v>
+        <v>0.5616240759128834</v>
       </c>
       <c r="Y55" t="n">
         <v>175</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.022283</t>
+          <t>2025-10-23T11:29:55.471642</t>
         </is>
       </c>
     </row>
@@ -5686,14 +5686,14 @@
         <v>3</v>
       </c>
       <c r="X56" t="n">
-        <v>0.5614880310328125</v>
+        <v>0.4648690042010548</v>
       </c>
       <c r="Y56" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.022283</t>
+          <t>2025-10-23T11:29:55.471642</t>
         </is>
       </c>
     </row>
@@ -5780,14 +5780,14 @@
         <v>2</v>
       </c>
       <c r="X57" t="n">
-        <v>0.4833019895740732</v>
+        <v>0.4373140117772072</v>
       </c>
       <c r="Y57" t="n">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.025283</t>
+          <t>2025-10-23T11:29:55.471642</t>
         </is>
       </c>
     </row>
@@ -5874,14 +5874,14 @@
         <v>3</v>
       </c>
       <c r="X58" t="n">
-        <v>0.4062858371373469</v>
+        <v>0.4403438404670793</v>
       </c>
       <c r="Y58" t="n">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.026305</t>
+          <t>2025-10-23T11:29:55.471642</t>
         </is>
       </c>
     </row>
@@ -5968,14 +5968,14 @@
         <v>1</v>
       </c>
       <c r="X59" t="n">
-        <v>0.4080867179076863</v>
+        <v>0.4987591192728781</v>
       </c>
       <c r="Y59" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.026305</t>
+          <t>2025-10-23T11:29:55.471642</t>
         </is>
       </c>
     </row>
@@ -6065,7 +6065,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.026305</t>
+          <t>2025-10-23T11:29:55.472641</t>
         </is>
       </c>
     </row>
@@ -6152,14 +6152,14 @@
         <v>5</v>
       </c>
       <c r="X61" t="n">
-        <v>0.4646405864041511</v>
+        <v>0.4336582084345861</v>
       </c>
       <c r="Y61" t="n">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.026305</t>
+          <t>2025-10-23T11:29:55.472641</t>
         </is>
       </c>
     </row>
@@ -6246,14 +6246,14 @@
         <v>2</v>
       </c>
       <c r="X62" t="n">
-        <v>0.4176985004103839</v>
+        <v>0.4653081537611671</v>
       </c>
       <c r="Y62" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.027284</t>
+          <t>2025-10-23T11:29:55.472641</t>
         </is>
       </c>
     </row>
@@ -6343,7 +6343,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.027284</t>
+          <t>2025-10-23T11:29:55.472641</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.027284</t>
+          <t>2025-10-23T11:29:55.473640</t>
         </is>
       </c>
     </row>
@@ -6523,7 +6523,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.027284</t>
+          <t>2025-10-23T11:29:55.473640</t>
         </is>
       </c>
     </row>
@@ -6610,14 +6610,14 @@
         <v>5</v>
       </c>
       <c r="X66" t="n">
-        <v>0.5606279512759792</v>
+        <v>0.5456432697223719</v>
       </c>
       <c r="Y66" t="n">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.027284</t>
+          <t>2025-10-23T11:29:55.473640</t>
         </is>
       </c>
     </row>
@@ -6704,14 +6704,14 @@
         <v>3</v>
       </c>
       <c r="X67" t="n">
-        <v>0.5657475018303859</v>
+        <v>0.507938426477816</v>
       </c>
       <c r="Y67" t="n">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.028285</t>
+          <t>2025-10-23T11:29:55.473640</t>
         </is>
       </c>
     </row>
@@ -6798,14 +6798,14 @@
         <v>3</v>
       </c>
       <c r="X68" t="n">
-        <v>0.4675230342807256</v>
+        <v>0.4538824667597043</v>
       </c>
       <c r="Y68" t="n">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.028285</t>
+          <t>2025-10-23T11:29:55.473640</t>
         </is>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.028285</t>
+          <t>2025-10-23T11:29:55.474643</t>
         </is>
       </c>
     </row>
@@ -6982,14 +6982,14 @@
         <v>4</v>
       </c>
       <c r="X70" t="n">
-        <v>0.4913069140965821</v>
+        <v>0.5742921180375435</v>
       </c>
       <c r="Y70" t="n">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.028285</t>
+          <t>2025-10-23T11:29:55.474643</t>
         </is>
       </c>
     </row>
@@ -7076,14 +7076,14 @@
         <v>4</v>
       </c>
       <c r="X71" t="n">
-        <v>0.4557292928473223</v>
+        <v>0.4066101465801097</v>
       </c>
       <c r="Y71" t="n">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.028285</t>
+          <t>2025-10-23T11:29:55.474643</t>
         </is>
       </c>
     </row>
@@ -7170,14 +7170,14 @@
         <v>4</v>
       </c>
       <c r="X72" t="n">
-        <v>0.4739308912122809</v>
+        <v>0.5523239230657435</v>
       </c>
       <c r="Y72" t="n">
         <v>76</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.028285</t>
+          <t>2025-10-23T11:29:55.474643</t>
         </is>
       </c>
     </row>
@@ -7264,14 +7264,14 @@
         <v>1</v>
       </c>
       <c r="X73" t="n">
-        <v>0.4807672342116082</v>
+        <v>0.5406037917790356</v>
       </c>
       <c r="Y73" t="n">
         <v>199</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.030287</t>
+          <t>2025-10-23T11:29:55.474643</t>
         </is>
       </c>
     </row>
@@ -7358,14 +7358,14 @@
         <v>3</v>
       </c>
       <c r="X74" t="n">
-        <v>0.4705137712668338</v>
+        <v>0.5636029531844986</v>
       </c>
       <c r="Y74" t="n">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.031283</t>
+          <t>2025-10-23T11:29:55.475641</t>
         </is>
       </c>
     </row>
@@ -7452,14 +7452,14 @@
         <v>1</v>
       </c>
       <c r="X75" t="n">
-        <v>0.4479123781333945</v>
+        <v>0.5268702689402728</v>
       </c>
       <c r="Y75" t="n">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.122702</t>
+          <t>2025-10-23T11:29:55.518683</t>
         </is>
       </c>
     </row>
@@ -7546,14 +7546,14 @@
         <v>2</v>
       </c>
       <c r="X76" t="n">
-        <v>0.4978905520555126</v>
+        <v>0.5061869166634273</v>
       </c>
       <c r="Y76" t="n">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.123702</t>
+          <t>2025-10-23T11:29:55.518683</t>
         </is>
       </c>
     </row>
@@ -7640,14 +7640,14 @@
         <v>4</v>
       </c>
       <c r="X77" t="n">
-        <v>0.476585374950758</v>
+        <v>0.4944429850323899</v>
       </c>
       <c r="Y77" t="n">
         <v>88</v>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.124704</t>
+          <t>2025-10-23T11:29:55.518683</t>
         </is>
       </c>
     </row>
@@ -7734,14 +7734,14 @@
         <v>5</v>
       </c>
       <c r="X78" t="n">
-        <v>0.4153959819657586</v>
+        <v>0.5885707141115961</v>
       </c>
       <c r="Y78" t="n">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.124704</t>
+          <t>2025-10-23T11:29:55.518683</t>
         </is>
       </c>
     </row>
@@ -7828,14 +7828,14 @@
         <v>3</v>
       </c>
       <c r="X79" t="n">
-        <v>0.5966846281789686</v>
+        <v>0.5264611661187159</v>
       </c>
       <c r="Y79" t="n">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.124704</t>
+          <t>2025-10-23T11:29:55.518683</t>
         </is>
       </c>
     </row>
@@ -7922,14 +7922,14 @@
         <v>1</v>
       </c>
       <c r="X80" t="n">
-        <v>0.5185393447758787</v>
+        <v>0.4484110543023001</v>
       </c>
       <c r="Y80" t="n">
         <v>194</v>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.125704</t>
+          <t>2025-10-23T11:29:55.518683</t>
         </is>
       </c>
     </row>
@@ -8016,14 +8016,14 @@
         <v>8</v>
       </c>
       <c r="X81" t="n">
-        <v>0.5424541179848884</v>
+        <v>0.4994497011784771</v>
       </c>
       <c r="Y81" t="n">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.125704</t>
+          <t>2025-10-23T11:29:55.518683</t>
         </is>
       </c>
     </row>
@@ -8113,7 +8113,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.125704</t>
+          <t>2025-10-23T11:29:55.518683</t>
         </is>
       </c>
     </row>
@@ -8200,14 +8200,14 @@
         <v>3</v>
       </c>
       <c r="X83" t="n">
-        <v>0.4028159645430169</v>
+        <v>0.4011044234247205</v>
       </c>
       <c r="Y83" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.125704</t>
+          <t>2025-10-23T11:29:55.518683</t>
         </is>
       </c>
     </row>
@@ -8294,14 +8294,14 @@
         <v>3</v>
       </c>
       <c r="X84" t="n">
-        <v>0.4727259204758588</v>
+        <v>0.4807672342116082</v>
       </c>
       <c r="Y84" t="n">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.125704</t>
+          <t>2025-10-23T11:29:55.534536</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.126704</t>
+          <t>2025-10-23T11:29:55.534536</t>
         </is>
       </c>
     </row>
@@ -8478,14 +8478,14 @@
         <v>4</v>
       </c>
       <c r="X86" t="n">
-        <v>0.4591267371675428</v>
+        <v>0.5616240759128834</v>
       </c>
       <c r="Y86" t="n">
         <v>83</v>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.126704</t>
+          <t>2025-10-23T11:29:55.534536</t>
         </is>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.126704</t>
+          <t>2025-10-23T11:29:55.534536</t>
         </is>
       </c>
     </row>
@@ -8662,14 +8662,14 @@
         <v>3</v>
       </c>
       <c r="X88" t="n">
-        <v>0.5614880310328125</v>
+        <v>0.4648690042010548</v>
       </c>
       <c r="Y88" t="n">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.126704</t>
+          <t>2025-10-23T11:29:55.535537</t>
         </is>
       </c>
     </row>
@@ -8756,14 +8756,14 @@
         <v>2</v>
       </c>
       <c r="X89" t="n">
-        <v>0.4833019895740732</v>
+        <v>0.4373140117772072</v>
       </c>
       <c r="Y89" t="n">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.126704</t>
+          <t>2025-10-23T11:29:55.536507</t>
         </is>
       </c>
     </row>
@@ -8850,14 +8850,14 @@
         <v>3</v>
       </c>
       <c r="X90" t="n">
-        <v>0.4062858371373469</v>
+        <v>0.4403438404670793</v>
       </c>
       <c r="Y90" t="n">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.127703</t>
+          <t>2025-10-23T11:29:55.536507</t>
         </is>
       </c>
     </row>
@@ -8944,14 +8944,14 @@
         <v>1</v>
       </c>
       <c r="X91" t="n">
-        <v>0.4080867179076863</v>
+        <v>0.4987591192728781</v>
       </c>
       <c r="Y91" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.127703</t>
+          <t>2025-10-23T11:29:55.536507</t>
         </is>
       </c>
     </row>
@@ -9038,14 +9038,14 @@
         <v>5</v>
       </c>
       <c r="X92" t="n">
-        <v>0.4646405864041511</v>
+        <v>0.4336582084345861</v>
       </c>
       <c r="Y92" t="n">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.127703</t>
+          <t>2025-10-23T11:29:55.536507</t>
         </is>
       </c>
     </row>
@@ -9132,14 +9132,14 @@
         <v>3</v>
       </c>
       <c r="X93" t="n">
-        <v>0.4301435087930859</v>
+        <v>0.5670604991178476</v>
       </c>
       <c r="Y93" t="n">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.127703</t>
+          <t>2025-10-23T11:29:55.536507</t>
         </is>
       </c>
     </row>
@@ -9226,14 +9226,14 @@
         <v>5</v>
       </c>
       <c r="X94" t="n">
-        <v>0.5606279512759792</v>
+        <v>0.5456432697223719</v>
       </c>
       <c r="Y94" t="n">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.128707</t>
+          <t>2025-10-23T11:29:55.536507</t>
         </is>
       </c>
     </row>
@@ -9323,7 +9323,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.128707</t>
+          <t>2025-10-23T11:29:55.536507</t>
         </is>
       </c>
     </row>
@@ -9410,14 +9410,14 @@
         <v>3</v>
       </c>
       <c r="X96" t="n">
-        <v>0.5657475018303859</v>
+        <v>0.507938426477816</v>
       </c>
       <c r="Y96" t="n">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.128707</t>
+          <t>2025-10-23T11:29:55.536507</t>
         </is>
       </c>
     </row>
@@ -9504,14 +9504,14 @@
         <v>3</v>
       </c>
       <c r="X97" t="n">
-        <v>0.4675230342807256</v>
+        <v>0.4538824667597043</v>
       </c>
       <c r="Y97" t="n">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.128707</t>
+          <t>2025-10-23T11:29:55.536507</t>
         </is>
       </c>
     </row>
@@ -9598,14 +9598,14 @@
         <v>1</v>
       </c>
       <c r="X98" t="n">
-        <v>0.5721461166512687</v>
+        <v>0.4705137712668338</v>
       </c>
       <c r="Y98" t="n">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.128707</t>
+          <t>2025-10-23T11:29:55.536507</t>
         </is>
       </c>
     </row>
@@ -9695,7 +9695,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.128707</t>
+          <t>2025-10-23T11:29:55.536507</t>
         </is>
       </c>
     </row>
@@ -9782,14 +9782,14 @@
         <v>4</v>
       </c>
       <c r="X100" t="n">
-        <v>0.4913069140965821</v>
+        <v>0.5742921180375435</v>
       </c>
       <c r="Y100" t="n">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.129709</t>
+          <t>2025-10-23T11:29:55.536507</t>
         </is>
       </c>
     </row>
@@ -9876,14 +9876,14 @@
         <v>5</v>
       </c>
       <c r="X101" t="n">
-        <v>0.5632863746438768</v>
+        <v>0.5071549368149517</v>
       </c>
       <c r="Y101" t="n">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.129709</t>
+          <t>2025-10-23T11:29:55.536507</t>
         </is>
       </c>
     </row>
@@ -9970,14 +9970,14 @@
         <v>4</v>
       </c>
       <c r="X102" t="n">
-        <v>0.4739308912122809</v>
+        <v>0.5523239230657435</v>
       </c>
       <c r="Y102" t="n">
         <v>21</v>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.129709</t>
+          <t>2025-10-23T11:29:55.536507</t>
         </is>
       </c>
     </row>
@@ -10064,14 +10064,14 @@
         <v>14</v>
       </c>
       <c r="X103" t="n">
-        <v>0.4650799396318536</v>
+        <v>0.4987787430366869</v>
       </c>
       <c r="Y103" t="n">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.185702</t>
+          <t>2025-10-23T11:29:55.635080</t>
         </is>
       </c>
     </row>
@@ -10158,14 +10158,14 @@
         <v>11</v>
       </c>
       <c r="X104" t="n">
-        <v>0.4896848285972495</v>
+        <v>0.5383790395385386</v>
       </c>
       <c r="Y104" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.185702</t>
+          <t>2025-10-23T11:29:55.637900</t>
         </is>
       </c>
     </row>
@@ -10252,14 +10252,14 @@
         <v>14</v>
       </c>
       <c r="X105" t="n">
-        <v>0.5693322284476612</v>
+        <v>0.5451911357740479</v>
       </c>
       <c r="Y105" t="n">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.185702</t>
+          <t>2025-10-23T11:29:55.637900</t>
         </is>
       </c>
     </row>
@@ -10349,7 +10349,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.186703</t>
+          <t>2025-10-23T11:29:55.638447</t>
         </is>
       </c>
     </row>
@@ -10436,14 +10436,14 @@
         <v>7</v>
       </c>
       <c r="X107" t="n">
-        <v>0.5299265798094429</v>
+        <v>0.473293756916572</v>
       </c>
       <c r="Y107" t="n">
         <v>206</v>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.186703</t>
+          <t>2025-10-23T11:29:55.638447</t>
         </is>
       </c>
     </row>
@@ -10530,14 +10530,14 @@
         <v>5</v>
       </c>
       <c r="X108" t="n">
-        <v>0.576527268637868</v>
+        <v>0.5800836114326661</v>
       </c>
       <c r="Y108" t="n">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.186703</t>
+          <t>2025-10-23T11:29:55.638447</t>
         </is>
       </c>
     </row>
@@ -10624,14 +10624,14 @@
         <v>9</v>
       </c>
       <c r="X109" t="n">
-        <v>0.4081550283109528</v>
+        <v>0.5391625613581763</v>
       </c>
       <c r="Y109" t="n">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.186703</t>
+          <t>2025-10-23T11:29:55.638959</t>
         </is>
       </c>
     </row>
@@ -10718,14 +10718,14 @@
         <v>14</v>
       </c>
       <c r="X110" t="n">
-        <v>0.5315225784600687</v>
+        <v>0.5441879848504259</v>
       </c>
       <c r="Y110" t="n">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.186703</t>
+          <t>2025-10-23T11:29:55.638959</t>
         </is>
       </c>
     </row>
@@ -10812,14 +10812,14 @@
         <v>7</v>
       </c>
       <c r="X111" t="n">
-        <v>0.516137324287291</v>
+        <v>0.5212858119319179</v>
       </c>
       <c r="Y111" t="n">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.186703</t>
+          <t>2025-10-23T11:29:55.638959</t>
         </is>
       </c>
     </row>
@@ -10906,14 +10906,14 @@
         <v>13</v>
       </c>
       <c r="X112" t="n">
-        <v>0.5424358442695072</v>
+        <v>0.4351850505354691</v>
       </c>
       <c r="Y112" t="n">
         <v>43</v>
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:14.186703</t>
+          <t>2025-10-23T11:29:55.638959</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R50_Pentropia.xlsx
@@ -665,7 +665,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.380076</t>
+          <t>2025-10-23T12:45:56.326195</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.380076</t>
+          <t>2025-10-23T12:45:56.326195</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.380605</t>
+          <t>2025-10-23T12:45:56.326195</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.380605</t>
+          <t>2025-10-23T12:45:56.329007</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.380605</t>
+          <t>2025-10-23T12:45:56.329007</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.380605</t>
+          <t>2025-10-23T12:45:56.329007</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.380605</t>
+          <t>2025-10-23T12:45:56.330003</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.381642</t>
+          <t>2025-10-23T12:45:56.330003</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.381642</t>
+          <t>2025-10-23T12:45:56.331005</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.381642</t>
+          <t>2025-10-23T12:45:56.331005</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.381642</t>
+          <t>2025-10-23T12:45:56.331005</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.383164</t>
+          <t>2025-10-23T12:45:56.331005</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.383164</t>
+          <t>2025-10-23T12:45:56.331005</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.384164</t>
+          <t>2025-10-23T12:45:56.332007</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.384164</t>
+          <t>2025-10-23T12:45:56.332007</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.384164</t>
+          <t>2025-10-23T12:45:56.332007</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.384164</t>
+          <t>2025-10-23T12:45:56.332007</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.384164</t>
+          <t>2025-10-23T12:45:56.332007</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.385164</t>
+          <t>2025-10-23T12:45:56.332007</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.385164</t>
+          <t>2025-10-23T12:45:56.333005</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.385164</t>
+          <t>2025-10-23T12:45:56.333005</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.385164</t>
+          <t>2025-10-23T12:45:56.333005</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.386169</t>
+          <t>2025-10-23T12:45:56.333005</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.386169</t>
+          <t>2025-10-23T12:45:56.333005</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.386169</t>
+          <t>2025-10-23T12:45:56.334006</t>
         </is>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.386169</t>
+          <t>2025-10-23T12:45:56.334006</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.387167</t>
+          <t>2025-10-23T12:45:56.334006</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.387167</t>
+          <t>2025-10-23T12:45:56.334006</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.387688</t>
+          <t>2025-10-23T12:45:56.334006</t>
         </is>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.388202</t>
+          <t>2025-10-23T12:45:56.335002</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.388202</t>
+          <t>2025-10-23T12:45:56.335002</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.388202</t>
+          <t>2025-10-23T12:45:56.335002</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.388202</t>
+          <t>2025-10-23T12:45:56.335002</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.388202</t>
+          <t>2025-10-23T12:45:56.335002</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.389435</t>
+          <t>2025-10-23T12:45:56.336002</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.389435</t>
+          <t>2025-10-23T12:45:56.336002</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.389435</t>
+          <t>2025-10-23T12:45:56.336002</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.389435</t>
+          <t>2025-10-23T12:45:56.336002</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.390223</t>
+          <t>2025-10-23T12:45:56.336002</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.390223</t>
+          <t>2025-10-23T12:45:56.336002</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.390223</t>
+          <t>2025-10-23T12:45:56.337001</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.390223</t>
+          <t>2025-10-23T12:45:56.337001</t>
         </is>
       </c>
     </row>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.391220</t>
+          <t>2025-10-23T12:45:56.337001</t>
         </is>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.391220</t>
+          <t>2025-10-23T12:45:56.337001</t>
         </is>
       </c>
     </row>
@@ -4753,7 +4753,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.468640</t>
+          <t>2025-10-23T12:45:56.453365</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.469643</t>
+          <t>2025-10-23T12:45:56.453365</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.469643</t>
+          <t>2025-10-23T12:45:56.453365</t>
         </is>
       </c>
     </row>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.469643</t>
+          <t>2025-10-23T12:45:56.453365</t>
         </is>
       </c>
     </row>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.470644</t>
+          <t>2025-10-23T12:45:56.453365</t>
         </is>
       </c>
     </row>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.470644</t>
+          <t>2025-10-23T12:45:56.453365</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.470644</t>
+          <t>2025-10-23T12:45:56.453365</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.470644</t>
+          <t>2025-10-23T12:45:56.453365</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.470644</t>
+          <t>2025-10-23T12:45:56.453365</t>
         </is>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.471642</t>
+          <t>2025-10-23T12:45:56.453365</t>
         </is>
       </c>
     </row>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.471642</t>
+          <t>2025-10-23T12:45:56.459379</t>
         </is>
       </c>
     </row>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.471642</t>
+          <t>2025-10-23T12:45:56.459379</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.471642</t>
+          <t>2025-10-23T12:45:56.459379</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.471642</t>
+          <t>2025-10-23T12:45:56.459379</t>
         </is>
       </c>
     </row>
@@ -6065,7 +6065,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.472641</t>
+          <t>2025-10-23T12:45:56.459379</t>
         </is>
       </c>
     </row>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.472641</t>
+          <t>2025-10-23T12:45:56.460697</t>
         </is>
       </c>
     </row>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.472641</t>
+          <t>2025-10-23T12:45:56.460697</t>
         </is>
       </c>
     </row>
@@ -6343,7 +6343,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.472641</t>
+          <t>2025-10-23T12:45:56.461707</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.473640</t>
+          <t>2025-10-23T12:45:56.461707</t>
         </is>
       </c>
     </row>
@@ -6523,7 +6523,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.473640</t>
+          <t>2025-10-23T12:45:56.461707</t>
         </is>
       </c>
     </row>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.473640</t>
+          <t>2025-10-23T12:45:56.461707</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.473640</t>
+          <t>2025-10-23T12:45:56.462700</t>
         </is>
       </c>
     </row>
@@ -6805,7 +6805,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.473640</t>
+          <t>2025-10-23T12:45:56.462700</t>
         </is>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.474643</t>
+          <t>2025-10-23T12:45:56.462700</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.474643</t>
+          <t>2025-10-23T12:45:56.462700</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.474643</t>
+          <t>2025-10-23T12:45:56.462700</t>
         </is>
       </c>
     </row>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.474643</t>
+          <t>2025-10-23T12:45:56.463743</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.474643</t>
+          <t>2025-10-23T12:45:56.463743</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.475641</t>
+          <t>2025-10-23T12:45:56.464407</t>
         </is>
       </c>
     </row>
@@ -7459,7 +7459,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.518683</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.518683</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.518683</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.518683</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.518683</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -7929,7 +7929,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.518683</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.518683</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -8113,7 +8113,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.518683</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -8207,7 +8207,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.518683</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.534536</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.534536</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.534536</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.534536</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.535537</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -8763,7 +8763,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.536507</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.536507</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.536507</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.536507</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.536507</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -9233,7 +9233,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.536507</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -9323,7 +9323,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.536507</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.536507</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.536507</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -9605,7 +9605,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.536507</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -9695,7 +9695,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.536507</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.536507</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -9883,7 +9883,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.536507</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.536507</t>
+          <t>2025-10-23T12:45:56.509126</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.635080</t>
+          <t>2025-10-23T12:45:56.546193</t>
         </is>
       </c>
     </row>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.637900</t>
+          <t>2025-10-23T12:45:56.546193</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.637900</t>
+          <t>2025-10-23T12:45:56.546193</t>
         </is>
       </c>
     </row>
@@ -10349,7 +10349,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.638447</t>
+          <t>2025-10-23T12:45:56.546193</t>
         </is>
       </c>
     </row>
@@ -10443,7 +10443,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.638447</t>
+          <t>2025-10-23T12:45:56.546193</t>
         </is>
       </c>
     </row>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.638447</t>
+          <t>2025-10-23T12:45:56.546193</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.638959</t>
+          <t>2025-10-23T12:45:56.546193</t>
         </is>
       </c>
     </row>
@@ -10725,7 +10725,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.638959</t>
+          <t>2025-10-23T12:45:56.546193</t>
         </is>
       </c>
     </row>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.638959</t>
+          <t>2025-10-23T12:45:56.546193</t>
         </is>
       </c>
     </row>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:55.638959</t>
+          <t>2025-10-23T12:45:56.546193</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R50_Pentropia.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z68"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,17 +653,17 @@
         <v>1.668340897614177</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4239188491876604</v>
+        <v>0.4538824667597043</v>
       </c>
       <c r="Y2" t="n">
         <v>80</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.767520</t>
         </is>
       </c>
     </row>
@@ -745,13 +745,17 @@
         <v>2.331760623167043</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.5616240759128834</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>123</v>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.767520</t>
         </is>
       </c>
     </row>
@@ -833,17 +837,17 @@
         <v>2.692330590262369</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5542540693371891</v>
+        <v>0.4329311706285884</v>
       </c>
       <c r="Y4" t="n">
         <v>108</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.767520</t>
         </is>
       </c>
     </row>
@@ -925,17 +929,17 @@
         <v>2.019717205634786</v>
       </c>
       <c r="W5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4850311748982489</v>
+        <v>0.4153959819657586</v>
       </c>
       <c r="Y5" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.767520</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1031,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.767520</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1119,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.767520</t>
         </is>
       </c>
     </row>
@@ -1197,17 +1201,17 @@
         <v>2.759507988842812</v>
       </c>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5544489538593315</v>
+        <v>0.5079682182603347</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.768518</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1303,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.768518</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1395,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.768518</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1487,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.768518</t>
         </is>
       </c>
     </row>
@@ -1565,17 +1569,17 @@
         <v>2.591813502483558</v>
       </c>
       <c r="W12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5413714687695235</v>
+        <v>0.5614880310328125</v>
       </c>
       <c r="Y12" t="n">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.768518</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1671,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.768518</t>
         </is>
       </c>
     </row>
@@ -1749,13 +1753,17 @@
         <v>2.602681353999297</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.4062858371373469</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>151</v>
+      </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.769517</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1855,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.769517</t>
         </is>
       </c>
     </row>
@@ -1929,17 +1937,17 @@
         <v>1.382049084274833</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X16" t="n">
-        <v>0.4149101287359542</v>
+        <v>0.405083825348819</v>
       </c>
       <c r="Y16" t="n">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.769517</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2039,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.769517</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2131,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.769517</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2223,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.769517</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2311,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.770517</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2399,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.770517</t>
         </is>
       </c>
     </row>
@@ -2483,7 +2491,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.770517</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2583,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.770517</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2675,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.770517</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2767,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.770517</t>
         </is>
       </c>
     </row>
@@ -2841,17 +2849,17 @@
         <v>2.915306382254141</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X26" t="n">
-        <v>0.5049549320516779</v>
+        <v>0.4705137712668338</v>
       </c>
       <c r="Y26" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.771517</t>
         </is>
       </c>
     </row>
@@ -2933,17 +2941,17 @@
         <v>2.693405186670858</v>
       </c>
       <c r="W27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X27" t="n">
-        <v>0.4561869019374762</v>
+        <v>0.5541934359909122</v>
       </c>
       <c r="Y27" t="n">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.771517</t>
         </is>
       </c>
     </row>
@@ -3025,13 +3033,17 @@
         <v>2.520337099760568</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.4969659942717967</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>134</v>
+      </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.771517</t>
         </is>
       </c>
     </row>
@@ -3113,17 +3125,17 @@
         <v>2.683084618828032</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X29" t="n">
-        <v>0.4281848449949526</v>
+        <v>0.4636006949943728</v>
       </c>
       <c r="Y29" t="n">
         <v>31</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.031223</t>
+          <t>2025-10-29T23:40:33.771517</t>
         </is>
       </c>
     </row>
@@ -3205,17 +3217,17 @@
         <v>2.045043980378633</v>
       </c>
       <c r="W30" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="X30" t="n">
-        <v>0.4148089303468181</v>
+        <v>0.4641560129943472</v>
       </c>
       <c r="Y30" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.046924</t>
+          <t>2025-10-29T23:40:33.797081</t>
         </is>
       </c>
     </row>
@@ -3297,17 +3309,17 @@
         <v>3.536795843331787</v>
       </c>
       <c r="W31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X31" t="n">
-        <v>0.4127116700572048</v>
+        <v>0.4978905520555126</v>
       </c>
       <c r="Y31" t="n">
         <v>22</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.046924</t>
+          <t>2025-10-29T23:40:33.797081</t>
         </is>
       </c>
     </row>
@@ -3389,17 +3401,17 @@
         <v>2.489967817501492</v>
       </c>
       <c r="W32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X32" t="n">
-        <v>0.4675230342807256</v>
+        <v>0.5290345580818899</v>
       </c>
       <c r="Y32" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.046924</t>
+          <t>2025-10-29T23:40:33.797081</t>
         </is>
       </c>
     </row>
@@ -3481,17 +3493,17 @@
         <v>2.339129698868308</v>
       </c>
       <c r="W33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X33" t="n">
-        <v>0.5721461166512687</v>
+        <v>0.5381875476204931</v>
       </c>
       <c r="Y33" t="n">
         <v>6</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.046924</t>
+          <t>2025-10-29T23:40:33.797081</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3573,17 +3585,17 @@
         <v>2.496741428288352</v>
       </c>
       <c r="W34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X34" t="n">
-        <v>0.4913069140965821</v>
+        <v>0.5966846281789686</v>
       </c>
       <c r="Y34" t="n">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.046924</t>
+          <t>2025-10-29T23:40:33.797081</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3683,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.046924</t>
+          <t>2025-10-29T23:40:33.797081</t>
         </is>
       </c>
     </row>
@@ -3753,17 +3765,17 @@
         <v>2.417705316209231</v>
       </c>
       <c r="W36" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X36" t="n">
-        <v>0.5037581243486732</v>
+        <v>0.4081550283109528</v>
       </c>
       <c r="Y36" t="n">
         <v>95</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.046924</t>
+          <t>2025-10-29T23:40:33.797081</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3863,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.046924</t>
+          <t>2025-10-29T23:40:33.797081</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3901,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L38" t="n">
         <v>0.8631205685666311</v>
@@ -3933,17 +3945,17 @@
         <v>2.54064870364359</v>
       </c>
       <c r="W38" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X38" t="n">
-        <v>0.5021494605155131</v>
+        <v>0.4739308912122809</v>
       </c>
       <c r="Y38" t="n">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.046924</t>
+          <t>2025-10-29T23:40:33.797081</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4043,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.046924</t>
+          <t>2025-10-29T23:40:33.798082</t>
         </is>
       </c>
     </row>
@@ -4123,7 +4135,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.046924</t>
+          <t>2025-10-29T23:40:33.798082</t>
         </is>
       </c>
     </row>
@@ -4205,17 +4217,17 @@
         <v>2.427820237691953</v>
       </c>
       <c r="W41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4444215620941461</v>
+        <v>0.4727259204758588</v>
       </c>
       <c r="Y41" t="n">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.046924</t>
+          <t>2025-10-29T23:40:33.799664</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4265,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L42" t="n">
         <v>0.8631205685666311</v>
@@ -4307,7 +4319,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.046924</t>
+          <t>2025-10-29T23:40:33.799664</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4411,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.062343</t>
+          <t>2025-10-29T23:40:33.828420</t>
         </is>
       </c>
     </row>
@@ -4481,17 +4493,17 @@
         <v>3.807558867735639</v>
       </c>
       <c r="W44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4899508266739531</v>
+        <v>0.4822074026636463</v>
       </c>
       <c r="Y44" t="n">
         <v>16</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.062343</t>
+          <t>2025-10-29T23:40:33.828420</t>
         </is>
       </c>
     </row>
@@ -4573,17 +4585,17 @@
         <v>2.918994152891999</v>
       </c>
       <c r="W45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X45" t="n">
-        <v>0.476585374950758</v>
+        <v>0.42961738599068</v>
       </c>
       <c r="Y45" t="n">
         <v>116</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.062343</t>
+          <t>2025-10-29T23:40:33.828420</t>
         </is>
       </c>
     </row>
@@ -4665,17 +4677,17 @@
         <v>3.6813977125314</v>
       </c>
       <c r="W46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4278662908811752</v>
+        <v>0.5721461166512687</v>
       </c>
       <c r="Y46" t="n">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.062343</t>
+          <t>2025-10-29T23:40:33.828420</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4779,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.062343</t>
+          <t>2025-10-29T23:40:33.828420</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4871,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.062343</t>
+          <t>2025-10-29T23:40:33.828420</t>
         </is>
       </c>
     </row>
@@ -4941,17 +4953,17 @@
         <v>2.408217064474085</v>
       </c>
       <c r="W49" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X49" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4690142496053366</v>
       </c>
       <c r="Y49" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.062343</t>
+          <t>2025-10-29T23:40:33.828420</t>
         </is>
       </c>
     </row>
@@ -5033,17 +5045,17 @@
         <v>2.108507398953188</v>
       </c>
       <c r="W50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X50" t="n">
-        <v>0.5580351081062411</v>
+        <v>0.453356202855057</v>
       </c>
       <c r="Y50" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.062343</t>
+          <t>2025-10-29T23:40:33.828420</t>
         </is>
       </c>
     </row>
@@ -5125,17 +5137,17 @@
         <v>3.393965079476674</v>
       </c>
       <c r="W51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X51" t="n">
-        <v>0.4898901348276407</v>
+        <v>0.4444215620941461</v>
       </c>
       <c r="Y51" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.062343</t>
+          <t>2025-10-29T23:40:33.828420</t>
         </is>
       </c>
     </row>
@@ -5217,17 +5229,17 @@
         <v>2.693405186670858</v>
       </c>
       <c r="W52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X52" t="n">
-        <v>0.5829919351087561</v>
+        <v>0.5792182599846987</v>
       </c>
       <c r="Y52" t="n">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.062343</t>
+          <t>2025-10-29T23:40:33.829424</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5327,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.062343</t>
+          <t>2025-10-29T23:40:33.829424</t>
         </is>
       </c>
     </row>
@@ -5407,7 +5419,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.062343</t>
+          <t>2025-10-29T23:40:33.829424</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5507,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.062343</t>
+          <t>2025-10-29T23:40:33.829424</t>
         </is>
       </c>
     </row>
@@ -5583,7 +5595,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.062343</t>
+          <t>2025-10-29T23:40:33.829424</t>
         </is>
       </c>
     </row>
@@ -5665,17 +5677,17 @@
         <v>2.40492460067837</v>
       </c>
       <c r="W57" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X57" t="n">
-        <v>0.4403438404670793</v>
+        <v>0.5392608545679577</v>
       </c>
       <c r="Y57" t="n">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.063334</t>
+          <t>2025-10-29T23:40:33.829424</t>
         </is>
       </c>
     </row>
@@ -5767,7 +5779,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.063334</t>
+          <t>2025-10-29T23:40:33.829424</t>
         </is>
       </c>
     </row>
@@ -5849,17 +5861,17 @@
         <v>3.001642121822325</v>
       </c>
       <c r="W59" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X59" t="n">
-        <v>0.4080867179076863</v>
+        <v>0.450783082786869</v>
       </c>
       <c r="Y59" t="n">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.063334</t>
+          <t>2025-10-29T23:40:33.829424</t>
         </is>
       </c>
     </row>
@@ -5941,726 +5953,22 @@
         <v>3.786378700931225</v>
       </c>
       <c r="W60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X60" t="n">
-        <v>0.4221781641623663</v>
+        <v>0.4646405864041511</v>
       </c>
       <c r="Y60" t="n">
         <v>32</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:57.063334</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>23</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4</v>
-      </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>7</v>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="b">
-        <v>1</v>
-      </c>
-      <c r="O61" t="b">
-        <v>1</v>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>[11, 107, 108, 50, 31, 6, 17]</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>[2.0450439453125, 2.39786434173584, 2.5406486988067627, 2.7599363327026367, 2.763245105743408, 2.774099111557007, 2.8216850757598877]</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>[111, 122, 58, 49, 74, 29, 32]</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>[2.978161573410034, 4.0501909255981445, 4.2081098556518555, 4.714849472045898, 4.798360824584961, 5.375450611114502, 5.376267433166504]</t>
-        </is>
-      </c>
-      <c r="U61" t="n">
-        <v>4</v>
-      </c>
-      <c r="V61" t="n">
-        <v>2.759936450809451</v>
-      </c>
-      <c r="W61" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:44:57.070301</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>29</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4</v>
-      </c>
-      <c r="D62" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>7</v>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="b">
-        <v>1</v>
-      </c>
-      <c r="O62" t="b">
-        <v>1</v>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>[0, 122, 50, 20, 100, 149, 108]</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>[3.3233187198638916, 4.059734344482422, 4.167458534240723, 4.20436429977417, 4.278962135314941, 4.5680131912231445, 4.604304790496826]</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>[122, 49, 111, 32, 23, 58, 74]</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>[4.059734344482422, 4.712945938110352, 4.923409938812256, 5.225722312927246, 5.375450611114502, 6.480259418487549, 7.0887932777404785]</t>
-        </is>
-      </c>
-      <c r="U62" t="n">
-        <v>4</v>
-      </c>
-      <c r="V62" t="n">
-        <v>4.204363922459241</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:44:57.070301</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>32</v>
-      </c>
-      <c r="C63" t="n">
-        <v>4</v>
-      </c>
-      <c r="D63" t="b">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>7</v>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.8631205685666311</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="b">
-        <v>0</v>
-      </c>
-      <c r="O63" t="b">
-        <v>1</v>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>[152, 111, 100, 50, 3, 16, 49]</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>[0, 1, 0, 0, 0, 0, 1]</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>[3.581364870071411, 3.782494068145752, 3.862605571746826, 3.9095888137817383, 3.9325404167175293, 3.952988386154175, 3.967590808868408]</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>[111, 49, 29, 23, 122, 58, 74]</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>[3.782494068145752, 3.967590808868408, 5.225722312927246, 5.376267433166504, 5.447623252868652, 5.880111217498779, 6.302395343780518]</t>
-        </is>
-      </c>
-      <c r="U63" t="n">
-        <v>4</v>
-      </c>
-      <c r="V63" t="n">
-        <v>3.909588731895917</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:44:57.070301</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>49</v>
-      </c>
-      <c r="C64" t="n">
-        <v>4</v>
-      </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>7</v>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="b">
-        <v>1</v>
-      </c>
-      <c r="O64" t="b">
-        <v>1</v>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>[0, 111, 100, 57, 108, 11, 50]</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>[2.7044990062713623, 2.744593620300293, 3.03739595413208, 3.6008496284484863, 3.601428508758545, 3.613584280014038, 3.7613816261291504]</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>[111, 32, 29, 23, 58, 122, 74]</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>[2.744593620300293, 3.967590808868408, 4.712945938110352, 4.714849472045898, 5.023791790008545, 5.143283843994141, 5.44774866104126]</t>
-        </is>
-      </c>
-      <c r="U64" t="n">
-        <v>4</v>
-      </c>
-      <c r="V64" t="n">
-        <v>3.600849714183764</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:44:57.071309</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>58</v>
-      </c>
-      <c r="C65" t="n">
-        <v>4</v>
-      </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>7</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="b">
-        <v>1</v>
-      </c>
-      <c r="O65" t="b">
-        <v>1</v>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>[116, 125, 6, 30, 144, 111, 80]</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>[2.321561098098755, 2.989548683166504, 2.9944894313812256, 3.028784990310669, 3.167263984680176, 3.3404667377471924, 3.3468122482299805]</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>[111, 74, 23, 49, 122, 32, 29]</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>[3.3404667377471924, 3.7469117641448975, 4.2081098556518555, 5.023791790008545, 5.170320510864258, 5.880111217498779, 6.480259418487549]</t>
-        </is>
-      </c>
-      <c r="U65" t="n">
-        <v>4</v>
-      </c>
-      <c r="V65" t="n">
-        <v>3.028784966243427</v>
-      </c>
-      <c r="W65" t="n">
-        <v>0</v>
-      </c>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:44:57.071309</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>74</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4</v>
-      </c>
-      <c r="D66" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66" t="n">
-        <v>7</v>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="b">
-        <v>1</v>
-      </c>
-      <c r="O66" t="b">
-        <v>1</v>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>[15, 151, 26, 116, 134, 79, 6]</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>[2.989654302597046, 3.279348850250244, 3.4450466632843018, 3.4723429679870605, 3.5377962589263916, 3.582503318786621, 3.678356170654297]</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>[58, 111, 23, 49, 122, 32, 29]</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>[3.7469117641448975, 4.177338600158691, 4.798360824584961, 5.44774866104126, 5.6261515617370605, 6.302395343780518, 7.0887932777404785]</t>
-        </is>
-      </c>
-      <c r="U66" t="n">
-        <v>4</v>
-      </c>
-      <c r="V66" t="n">
-        <v>3.472343064863247</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:44:57.071309</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>111</v>
-      </c>
-      <c r="C67" t="n">
-        <v>4</v>
-      </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" t="n">
-        <v>7</v>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="b">
-        <v>1</v>
-      </c>
-      <c r="O67" t="b">
-        <v>1</v>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>[108, 11, 100, 50, 26, 30, 57]</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>[1.7137212753295898, 1.8753184080123901, 1.9820659160614014, 2.4990010261535645, 2.7067956924438477, 2.70947003364563, 2.71624755859375]</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>[49, 23, 58, 32, 122, 74, 29]</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>[2.744593620300293, 2.978161573410034, 3.3404667377471924, 3.782494068145752, 4.119991302490234, 4.177338600158691, 4.923409938812256]</t>
-        </is>
-      </c>
-      <c r="U67" t="n">
-        <v>4</v>
-      </c>
-      <c r="V67" t="n">
-        <v>2.499001048485301</v>
-      </c>
-      <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:44:57.071309</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>122</v>
-      </c>
-      <c r="C68" t="n">
-        <v>4</v>
-      </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>7</v>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="b">
-        <v>1</v>
-      </c>
-      <c r="O68" t="b">
-        <v>1</v>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>[143, 108, 100, 118, 151, 20, 30]</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>[3.4728429317474365, 3.7831006050109863, 3.8177778720855713, 3.835824966430664, 3.876563787460327, 3.8958423137664795, 4.041891574859619]</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>[23, 29, 111, 49, 58, 32, 74]</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>[4.0501909255981445, 4.059734344482422, 4.119991302490234, 5.143283843994141, 5.170320510864258, 5.447623252868652, 5.6261515617370605]</t>
-        </is>
-      </c>
-      <c r="U68" t="n">
-        <v>4</v>
-      </c>
-      <c r="V68" t="n">
-        <v>3.835825009391853</v>
-      </c>
-      <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:44:57.071309</t>
+          <t>2025-10-29T23:40:33.829424</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:Z68">
+  <conditionalFormatting sqref="A2:Z60">
     <cfRule type="expression" priority="1" dxfId="0">
       <formula>=$D2=FALSE</formula>
     </cfRule>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R50_Pentropia.xlsx
@@ -598,7 +598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="b">
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.238977</t>
+          <t>2025-11-13T06:52:37.882204</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -686,7 +686,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -700,11 +700,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -741,13 +741,17 @@
         <v>1.714441116937857</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.4186205535611799</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>221</v>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.239766</t>
+          <t>2025-11-13T06:52:37.882204</t>
         </is>
       </c>
     </row>
@@ -774,7 +778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -788,7 +792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="b">
@@ -829,17 +833,17 @@
         <v>1.803395001051521</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4186205535611799</v>
+        <v>0.5443459042329746</v>
       </c>
       <c r="Y4" t="n">
         <v>31</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.239871</t>
+          <t>2025-11-13T06:52:37.882204</t>
         </is>
       </c>
     </row>
@@ -866,7 +870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -880,7 +884,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="b">
@@ -921,17 +925,17 @@
         <v>2.234315576844593</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5215089703802877</v>
+        <v>0.5939169255529118</v>
       </c>
       <c r="Y5" t="n">
         <v>119</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.240877</t>
+          <t>2025-11-13T06:52:37.882204</t>
         </is>
       </c>
     </row>
@@ -958,7 +962,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -972,7 +976,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="b">
@@ -1013,17 +1017,17 @@
         <v>2.322388759208431</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5939169255529118</v>
+        <v>0.4716931457088545</v>
       </c>
       <c r="Y6" t="n">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.240877</t>
+          <t>2025-11-13T06:52:37.882204</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -1050,7 +1054,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1064,11 +1068,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -1105,13 +1109,17 @@
         <v>1.654076123726956</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.571671760962744</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>26</v>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.241872</t>
+          <t>2025-11-13T06:52:37.882204</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1146,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1152,7 +1160,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="b">
@@ -1193,17 +1201,17 @@
         <v>2.046877489124725</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4716931457088545</v>
+        <v>0.5389569866079409</v>
       </c>
       <c r="Y8" t="n">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.241872</t>
+          <t>2025-11-13T06:52:37.882204</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1238,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1244,7 +1252,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="b">
@@ -1285,17 +1293,17 @@
         <v>1.837934537701638</v>
       </c>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X9" t="n">
-        <v>0.571671760962744</v>
+        <v>0.4868788731020857</v>
       </c>
       <c r="Y9" t="n">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.241872</t>
+          <t>2025-11-13T06:52:37.883205</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1330,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1336,7 +1344,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="b">
@@ -1377,17 +1385,17 @@
         <v>2.309985792869786</v>
       </c>
       <c r="W10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4698419149225322</v>
       </c>
       <c r="Y10" t="n">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.241872</t>
+          <t>2025-11-13T06:52:37.883205</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1422,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1428,7 +1436,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="b">
@@ -1469,17 +1477,13 @@
         <v>1.928785842623751</v>
       </c>
       <c r="W11" t="n">
-        <v>5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.4868788731020857</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.242871</t>
+          <t>2025-11-13T06:52:37.883205</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1506,7 +1510,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1520,11 +1524,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -1561,17 +1565,13 @@
         <v>1.573468939206438</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.4698419149225322</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.242871</t>
+          <t>2025-11-13T06:52:37.883205</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="b">
@@ -1653,13 +1653,17 @@
         <v>2.05194608426208</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.5470432238481544</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15</v>
+      </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.242871</t>
+          <t>2025-11-13T06:52:37.883205</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1686,7 +1690,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1700,11 +1704,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
@@ -1741,13 +1745,17 @@
         <v>2.033688812867878</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.5800836114326661</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>232</v>
+      </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.243876</t>
+          <t>2025-11-13T06:52:37.883205</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1782,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1788,7 +1796,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="b">
@@ -1832,14 +1840,14 @@
         <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>0.5470432238481544</v>
+        <v>0.4609562516316058</v>
       </c>
       <c r="Y15" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.243876</t>
+          <t>2025-11-13T06:52:37.883205</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1866,7 +1874,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1880,11 +1888,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
@@ -1921,17 +1929,13 @@
         <v>1.911896050589188</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.5800836114326661</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.243876</t>
+          <t>2025-11-13T06:52:37.883205</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1962,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1972,7 +1976,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="b">
@@ -2013,17 +2017,17 @@
         <v>1.817842277538554</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>0.4609562516316058</v>
+        <v>0.5045465658763988</v>
       </c>
       <c r="Y17" t="n">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.244870</t>
+          <t>2025-11-13T06:52:37.883205</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -2050,7 +2054,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2064,11 +2068,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
@@ -2105,17 +2109,13 @@
         <v>1.748777674464573</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.5521570097233794</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.245874</t>
+          <t>2025-11-13T06:52:37.883205</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="b">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.246870</t>
+          <t>2025-11-13T06:52:37.883205</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="b">
@@ -2289,17 +2289,17 @@
         <v>2.179224466819925</v>
       </c>
       <c r="W20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>0.444853861892112</v>
+        <v>0.5712648583756185</v>
       </c>
       <c r="Y20" t="n">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.247873</t>
+          <t>2025-11-13T06:52:37.884204</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="b">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.247873</t>
+          <t>2025-11-13T06:52:37.884204</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2418,7 +2418,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2432,11 +2432,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -2473,17 +2473,13 @@
         <v>1.798402758453689</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.4971227507172453</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.247873</t>
+          <t>2025-11-13T06:52:37.884204</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2506,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2524,7 +2520,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="b">
@@ -2565,17 +2561,17 @@
         <v>2.040142973060756</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>0.4048631932862908</v>
+        <v>0.4971227507172453</v>
       </c>
       <c r="Y23" t="n">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.248875</t>
+          <t>2025-11-13T06:52:37.884204</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2602,7 +2598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2616,11 +2612,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -2657,13 +2653,17 @@
         <v>1.593242342363332</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.4048631932862908</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>22</v>
+      </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.248875</t>
+          <t>2025-11-13T06:52:37.884204</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2690,7 +2690,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2704,11 +2704,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
@@ -2745,17 +2745,13 @@
         <v>1.352527450267611</v>
       </c>
       <c r="W25" t="n">
-        <v>3</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.4744565533123486</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.248875</t>
+          <t>2025-11-13T06:52:37.884204</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -2782,7 +2778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2796,11 +2792,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2837,13 +2833,17 @@
         <v>1.959254243825986</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.4744565533123486</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>83</v>
+      </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.266513</t>
+          <t>2025-11-13T06:52:37.884204</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -2870,7 +2870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2884,11 +2884,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2925,17 +2925,13 @@
         <v>1.938866846591789</v>
       </c>
       <c r="W27" t="n">
-        <v>5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0.5153807769252718</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.266513</t>
+          <t>2025-11-13T06:52:37.884204</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -2962,7 +2958,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2976,11 +2972,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -3017,17 +3013,13 @@
         <v>1.891457596674842</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.497348430591891</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.266513</t>
+          <t>2025-11-13T06:52:37.884204</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -3054,7 +3046,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -3068,11 +3060,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -3109,13 +3101,17 @@
         <v>1.994710526848182</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.5153807769252718</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>238</v>
+      </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.266513</t>
+          <t>2025-11-13T06:52:37.884204</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
@@ -3142,7 +3138,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -3156,11 +3152,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -3197,13 +3193,17 @@
         <v>1.612076570831702</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.497348430591891</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>180</v>
+      </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.266513</t>
+          <t>2025-11-13T06:52:37.884204</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="b">
@@ -3285,7 +3285,7 @@
         <v>2.138998561913302</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X31" t="n">
         <v>0.4515883255430311</v>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.266513</t>
+          <t>2025-11-13T06:52:37.885204</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L32" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="b">
@@ -3377,17 +3377,17 @@
         <v>1.640133907892154</v>
       </c>
       <c r="W32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
-        <v>0.4856368296634629</v>
+        <v>0.4646405864041511</v>
       </c>
       <c r="Y32" t="n">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.270787</t>
+          <t>2025-11-13T06:52:37.885204</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3414,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L33" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="b">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.271339</t>
+          <t>2025-11-13T06:52:37.885204</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L34" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="b">
@@ -3561,17 +3561,17 @@
         <v>1.826617477483069</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.5878997883128378</v>
       </c>
       <c r="Y34" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.271339</t>
+          <t>2025-11-13T06:52:37.885204</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L35" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="b">
@@ -3659,7 +3659,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.271339</t>
+          <t>2025-11-13T06:52:37.885204</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
@@ -3686,7 +3686,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -3700,11 +3700,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L36" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -3741,13 +3741,17 @@
         <v>1.778499208294157</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.4636006949943728</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>23</v>
+      </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.272996</t>
+          <t>2025-11-13T06:52:37.885204</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -3788,7 +3792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L37" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="b">
@@ -3832,14 +3836,14 @@
         <v>4</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4636006949943728</v>
+        <v>0.5766988044532517</v>
       </c>
       <c r="Y37" t="n">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.272996</t>
+          <t>2025-11-13T06:52:37.885204</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -3880,7 +3884,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L38" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="b">
@@ -3921,17 +3925,13 @@
         <v>1.86755777956255</v>
       </c>
       <c r="W38" t="n">
-        <v>4</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0.5766988044532517</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>183</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.273997</t>
+          <t>2025-11-13T06:52:37.885204</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
@@ -3958,7 +3958,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -3972,11 +3972,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
@@ -4019,7 +4019,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.273997</t>
+          <t>2025-11-13T06:52:37.885204</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L40" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="b">
@@ -4101,13 +4101,17 @@
         <v>2.232703449477532</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.4161706652665431</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>229</v>
+      </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.274992</t>
+          <t>2025-11-13T06:52:37.885204</t>
         </is>
       </c>
     </row>
@@ -4124,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
@@ -4134,7 +4138,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -4148,11 +4152,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L41" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -4189,13 +4193,17 @@
         <v>1.867902967647811</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.4460370536483111</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>15</v>
+      </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.275785</t>
+          <t>2025-11-13T06:52:37.886204</t>
         </is>
       </c>
     </row>
@@ -4212,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -4222,7 +4230,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -4236,11 +4244,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -4277,17 +4285,13 @@
         <v>1.711909496144319</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0.5960663167432091</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.275785</t>
+          <t>2025-11-13T06:52:37.886204</t>
         </is>
       </c>
     </row>
@@ -4304,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -4314,7 +4318,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -4328,11 +4332,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
@@ -4369,13 +4373,17 @@
         <v>1.906876234757517</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.4127116700572048</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>49</v>
+      </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.276790</t>
+          <t>2025-11-13T06:52:37.886204</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4410,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -4416,7 +4424,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L44" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="b">
@@ -4457,17 +4465,17 @@
         <v>1.644528065423013</v>
       </c>
       <c r="W44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4161706652665431</v>
+        <v>0.444853861892112</v>
       </c>
       <c r="Y44" t="n">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.278802</t>
+          <t>2025-11-13T06:52:37.886204</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4502,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -4508,7 +4516,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L45" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="b">
@@ -4549,17 +4557,17 @@
         <v>1.651329488904762</v>
       </c>
       <c r="W45" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X45" t="n">
-        <v>0.4460370536483111</v>
+        <v>0.5422299064876035</v>
       </c>
       <c r="Y45" t="n">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:32.278802</t>
+          <t>2025-11-13T06:52:37.886204</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4594,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -4600,7 +4608,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="b">
@@ -4641,17 +4649,17 @@
         <v>2.70087547222259</v>
       </c>
       <c r="W46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4460370536483111</v>
+        <v>0.4588897784139171</v>
       </c>
       <c r="Y46" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.000731</t>
+          <t>2025-11-13T06:52:38.564990</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4686,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -4692,7 +4700,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="b">
@@ -4733,17 +4741,17 @@
         <v>1.625276499656459</v>
       </c>
       <c r="W47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X47" t="n">
-        <v>0.5789654700855298</v>
+        <v>0.5616240759128834</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.000731</t>
+          <t>2025-11-13T06:52:38.564990</t>
         </is>
       </c>
     </row>
@@ -4770,7 +4778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -4784,7 +4792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="b">
@@ -4825,17 +4833,17 @@
         <v>1.888512740684026</v>
       </c>
       <c r="W48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X48" t="n">
-        <v>0.570601891093472</v>
+        <v>0.444853861892112</v>
       </c>
       <c r="Y48" t="n">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.000731</t>
+          <t>2025-11-13T06:52:38.565992</t>
         </is>
       </c>
     </row>
@@ -4862,7 +4870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -4876,7 +4884,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L49" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="b">
@@ -4917,17 +4925,17 @@
         <v>1.575951432831394</v>
       </c>
       <c r="W49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X49" t="n">
-        <v>0.449858445829775</v>
+        <v>0.5422299064876035</v>
       </c>
       <c r="Y49" t="n">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.000731</t>
+          <t>2025-11-13T06:52:38.565992</t>
         </is>
       </c>
     </row>
@@ -4954,7 +4962,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -4968,7 +4976,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L50" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="b">
@@ -5009,7 +5017,7 @@
         <v>1.678778917511117</v>
       </c>
       <c r="W50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X50" t="n">
         <v>0.5995480970097884</v>
@@ -5019,7 +5027,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.000731</t>
+          <t>2025-11-13T06:52:38.565992</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5054,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -5060,7 +5068,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L51" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="b">
@@ -5101,7 +5109,7 @@
         <v>1.730949828540154</v>
       </c>
       <c r="W51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X51" t="n">
         <v>0.516137324287291</v>
@@ -5111,7 +5119,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.000731</t>
+          <t>2025-11-13T06:52:38.565992</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5146,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -5152,7 +5160,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="b">
@@ -5193,17 +5201,17 @@
         <v>2.470211820084005</v>
       </c>
       <c r="W52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X52" t="n">
-        <v>0.5424541179848884</v>
+        <v>0.5675420211814656</v>
       </c>
       <c r="Y52" t="n">
         <v>41</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.000731</t>
+          <t>2025-11-13T06:52:38.566993</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5238,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -5244,7 +5252,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L53" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="b">
@@ -5295,7 +5303,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.004944</t>
+          <t>2025-11-13T06:52:38.566993</t>
         </is>
       </c>
     </row>
@@ -5322,7 +5330,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -5336,7 +5344,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="b">
@@ -5380,14 +5388,14 @@
         <v>3</v>
       </c>
       <c r="X54" t="n">
-        <v>0.4013904261062382</v>
+        <v>0.585663712517545</v>
       </c>
       <c r="Y54" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.004944</t>
+          <t>2025-11-13T06:52:38.566993</t>
         </is>
       </c>
     </row>
@@ -5414,7 +5422,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -5428,7 +5436,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L55" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="b">
@@ -5469,13 +5477,17 @@
         <v>2.089864703434122</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.519579995762217</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>31</v>
+      </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.005954</t>
+          <t>2025-11-13T06:52:38.566993</t>
         </is>
       </c>
     </row>
@@ -5492,7 +5504,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -5502,7 +5514,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -5516,11 +5528,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="b">
         <v>1</v>
@@ -5557,17 +5569,13 @@
         <v>1.930621396397587</v>
       </c>
       <c r="W56" t="n">
-        <v>5</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0.4323257428189228</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.006945</t>
+          <t>2025-11-13T06:52:38.567991</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5602,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -5608,7 +5616,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="b">
@@ -5649,17 +5657,17 @@
         <v>1.911379087493055</v>
       </c>
       <c r="W57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X57" t="n">
-        <v>0.4646405864041511</v>
+        <v>0.4323257428189228</v>
       </c>
       <c r="Y57" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.006945</t>
+          <t>2025-11-13T06:52:38.567991</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5694,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -5700,7 +5708,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L58" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="b">
@@ -5741,17 +5749,17 @@
         <v>1.898609511862491</v>
       </c>
       <c r="W58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X58" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4646405864041511</v>
       </c>
       <c r="Y58" t="n">
         <v>232</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.006945</t>
+          <t>2025-11-13T06:52:38.567991</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5776,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5778,7 +5786,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -5792,11 +5800,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="b">
         <v>1</v>
@@ -5833,17 +5841,13 @@
         <v>1.895236590874932</v>
       </c>
       <c r="W59" t="n">
-        <v>2</v>
-      </c>
-      <c r="X59" t="n">
-        <v>0.4090454577821077</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.007943</t>
+          <t>2025-11-13T06:52:38.567991</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5874,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -5884,7 +5888,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L60" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="b">
@@ -5925,17 +5929,17 @@
         <v>2.541027095624261</v>
       </c>
       <c r="W60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X60" t="n">
-        <v>0.405083825348819</v>
+        <v>0.5389569866079409</v>
       </c>
       <c r="Y60" t="n">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.007943</t>
+          <t>2025-11-13T06:52:38.568988</t>
         </is>
       </c>
     </row>
@@ -5952,7 +5956,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5962,7 +5966,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -5976,11 +5980,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="b">
         <v>1</v>
@@ -6017,17 +6021,13 @@
         <v>1.790537967456421</v>
       </c>
       <c r="W61" t="n">
-        <v>5</v>
-      </c>
-      <c r="X61" t="n">
-        <v>0.5144008398418366</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.007943</t>
+          <t>2025-11-13T06:52:38.568988</t>
         </is>
       </c>
     </row>
@@ -6054,7 +6054,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L62" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="b">
@@ -6112,14 +6112,14 @@
         <v>2</v>
       </c>
       <c r="X62" t="n">
-        <v>0.5989101021594682</v>
+        <v>0.5766988044532517</v>
       </c>
       <c r="Y62" t="n">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.008942</t>
+          <t>2025-11-13T06:52:38.568988</t>
         </is>
       </c>
     </row>
@@ -6146,7 +6146,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L63" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="b">
@@ -6201,17 +6201,17 @@
         <v>1.998339108593484</v>
       </c>
       <c r="W63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X63" t="n">
-        <v>0.5383790395385386</v>
+        <v>0.405083825348819</v>
       </c>
       <c r="Y63" t="n">
         <v>80</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.008942</t>
+          <t>2025-11-13T06:52:38.568988</t>
         </is>
       </c>
     </row>
@@ -6238,7 +6238,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L64" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="b">
@@ -6293,17 +6293,17 @@
         <v>1.639255076186158</v>
       </c>
       <c r="W64" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X64" t="n">
-        <v>0.5712648583756185</v>
+        <v>0.5144008398418366</v>
       </c>
       <c r="Y64" t="n">
         <v>166</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.008942</t>
+          <t>2025-11-13T06:52:38.569989</t>
         </is>
       </c>
     </row>
@@ -6330,7 +6330,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L65" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="b">
@@ -6385,17 +6385,17 @@
         <v>1.97012312130098</v>
       </c>
       <c r="W65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X65" t="n">
-        <v>0.4521658349660818</v>
+        <v>0.5144584938341676</v>
       </c>
       <c r="Y65" t="n">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.009886</t>
+          <t>2025-11-13T06:52:38.569989</t>
         </is>
       </c>
     </row>
@@ -6422,7 +6422,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L66" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="b">
@@ -6477,17 +6477,17 @@
         <v>2.923450582907786</v>
       </c>
       <c r="W66" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X66" t="n">
-        <v>0.5153807769252718</v>
+        <v>0.4789382933618944</v>
       </c>
       <c r="Y66" t="n">
         <v>154</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.009886</t>
+          <t>2025-11-13T06:52:38.569989</t>
         </is>
       </c>
     </row>
@@ -6514,7 +6514,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L67" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="b">
@@ -6569,17 +6569,17 @@
         <v>2.061123711387564</v>
       </c>
       <c r="W67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X67" t="n">
-        <v>0.497348430591891</v>
+        <v>0.5712648583756185</v>
       </c>
       <c r="Y67" t="n">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.009886</t>
+          <t>2025-11-13T06:52:38.569989</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6606,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L68" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="b">
@@ -6661,17 +6661,17 @@
         <v>2.026462434890598</v>
       </c>
       <c r="W68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X68" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.4521658349660818</v>
       </c>
       <c r="Y68" t="n">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.010899</t>
+          <t>2025-11-13T06:52:38.570988</t>
         </is>
       </c>
     </row>
@@ -6698,7 +6698,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L69" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="b">
@@ -6753,17 +6753,17 @@
         <v>2.819292856187221</v>
       </c>
       <c r="W69" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X69" t="n">
-        <v>0.4484319876554852</v>
+        <v>0.4633844010312556</v>
       </c>
       <c r="Y69" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.010899</t>
+          <t>2025-11-13T06:52:38.571998</t>
         </is>
       </c>
     </row>
@@ -6780,7 +6780,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -6790,7 +6790,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -6804,11 +6804,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="b">
         <v>1</v>
@@ -6845,17 +6845,13 @@
         <v>1.866028838004431</v>
       </c>
       <c r="W70" t="n">
-        <v>3</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0.4544264498769271</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>183</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.010899</t>
+          <t>2025-11-13T06:52:38.571998</t>
         </is>
       </c>
     </row>
@@ -6882,7 +6878,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -6896,7 +6892,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L71" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="b">
@@ -6937,17 +6933,17 @@
         <v>2.251734167574515</v>
       </c>
       <c r="W71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X71" t="n">
-        <v>0.561900209227943</v>
+        <v>0.5860033669621664</v>
       </c>
       <c r="Y71" t="n">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.010899</t>
+          <t>2025-11-13T06:52:38.571998</t>
         </is>
       </c>
     </row>
@@ -6974,7 +6970,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -6988,7 +6984,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L72" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="b">
@@ -7029,7 +7025,7 @@
         <v>2.335352757072452</v>
       </c>
       <c r="W72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X72" t="n">
         <v>0.4557742705184364</v>
@@ -7039,7 +7035,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.010899</t>
+          <t>2025-11-13T06:52:38.572991</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7062,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -7080,7 +7076,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L73" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="b">
@@ -7121,17 +7117,17 @@
         <v>1.744990581515918</v>
       </c>
       <c r="W73" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X73" t="n">
-        <v>0.5906143694047906</v>
+        <v>0.4484319876554852</v>
       </c>
       <c r="Y73" t="n">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.010899</t>
+          <t>2025-11-13T06:52:38.572991</t>
         </is>
       </c>
     </row>
@@ -7158,7 +7154,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -7172,7 +7168,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L74" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="b">
@@ -7213,17 +7209,17 @@
         <v>1.975659737709924</v>
       </c>
       <c r="W74" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X74" t="n">
-        <v>0.4381822062300692</v>
+        <v>0.4705137712668338</v>
       </c>
       <c r="Y74" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:33.011895</t>
+          <t>2025-11-13T06:52:38.572991</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7246,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H75" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -7264,7 +7260,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="b">
@@ -7305,17 +7301,17 @@
         <v>1.96217666044828</v>
       </c>
       <c r="W75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X75" t="n">
-        <v>0.4588897784139171</v>
+        <v>0.4460370536483111</v>
       </c>
       <c r="Y75" t="n">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.176027</t>
+          <t>2025-11-13T06:52:39.249020</t>
         </is>
       </c>
     </row>
@@ -7342,7 +7338,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H76" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -7356,7 +7352,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L76" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="b">
@@ -7397,17 +7393,17 @@
         <v>2.127223458367889</v>
       </c>
       <c r="W76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X76" t="n">
-        <v>0.5616240759128834</v>
+        <v>0.5135400655639983</v>
       </c>
       <c r="Y76" t="n">
         <v>95</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.176564</t>
+          <t>2025-11-13T06:52:39.249020</t>
         </is>
       </c>
     </row>
@@ -7434,7 +7430,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H77" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -7448,7 +7444,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L77" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="b">
@@ -7489,7 +7485,7 @@
         <v>2.065490897445589</v>
       </c>
       <c r="W77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X77" t="n">
         <v>0.444853861892112</v>
@@ -7499,7 +7495,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.176564</t>
+          <t>2025-11-13T06:52:39.249020</t>
         </is>
       </c>
     </row>
@@ -7526,7 +7522,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H78" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -7540,7 +7536,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L78" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="b">
@@ -7591,7 +7587,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.176564</t>
+          <t>2025-11-13T06:52:39.250021</t>
         </is>
       </c>
     </row>
@@ -7618,7 +7614,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H79" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -7632,7 +7628,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L79" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="b">
@@ -7683,7 +7679,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.176564</t>
+          <t>2025-11-13T06:52:39.250021</t>
         </is>
       </c>
     </row>
@@ -7710,7 +7706,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H80" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -7724,7 +7720,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="b">
@@ -7775,7 +7771,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.176564</t>
+          <t>2025-11-13T06:52:39.250021</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7798,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H81" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -7816,7 +7812,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L81" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="b">
@@ -7857,17 +7853,17 @@
         <v>1.758995504745408</v>
       </c>
       <c r="W81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X81" t="n">
-        <v>0.5881046528979208</v>
+        <v>0.5424541179848884</v>
       </c>
       <c r="Y81" t="n">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.176564</t>
+          <t>2025-11-13T06:52:39.250021</t>
         </is>
       </c>
     </row>
@@ -7894,7 +7890,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H82" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -7908,7 +7904,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L82" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="b">
@@ -7959,7 +7955,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.176564</t>
+          <t>2025-11-13T06:52:39.250021</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7982,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H83" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -8000,7 +7996,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L83" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="b">
@@ -8041,17 +8037,17 @@
         <v>2.38246441112088</v>
       </c>
       <c r="W83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X83" t="n">
-        <v>0.585663712517545</v>
+        <v>0.4013904261062382</v>
       </c>
       <c r="Y83" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.176564</t>
+          <t>2025-11-13T06:52:39.250021</t>
         </is>
       </c>
     </row>
@@ -8078,7 +8074,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -8092,7 +8088,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L84" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="b">
@@ -8143,7 +8139,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.176564</t>
+          <t>2025-11-13T06:52:39.250021</t>
         </is>
       </c>
     </row>
@@ -8170,7 +8166,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -8184,7 +8180,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L85" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="b">
@@ -8235,7 +8231,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.176564</t>
+          <t>2025-11-13T06:52:39.250021</t>
         </is>
       </c>
     </row>
@@ -8262,7 +8258,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H86" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -8276,7 +8272,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="b">
@@ -8317,7 +8313,7 @@
         <v>1.914143979237367</v>
       </c>
       <c r="W86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X86" t="n">
         <v>0.4646405864041511</v>
@@ -8327,7 +8323,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.176564</t>
+          <t>2025-11-13T06:52:39.250021</t>
         </is>
       </c>
     </row>
@@ -8344,7 +8340,7 @@
         <v>3</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -8354,7 +8350,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H87" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -8368,11 +8364,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="b">
         <v>1</v>
@@ -8409,13 +8405,17 @@
         <v>3.33004649724527</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
-      </c>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.5389569866079409</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>214</v>
+      </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.176564</t>
+          <t>2025-11-13T06:52:39.250021</t>
         </is>
       </c>
     </row>
@@ -8442,7 +8442,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H88" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="b">
@@ -8497,17 +8497,17 @@
         <v>2.140192018834097</v>
       </c>
       <c r="W88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X88" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.5766988044532517</v>
       </c>
       <c r="Y88" t="n">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.176564</t>
+          <t>2025-11-13T06:52:39.251021</t>
         </is>
       </c>
     </row>
@@ -8534,7 +8534,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H89" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="b">
@@ -8589,17 +8589,17 @@
         <v>1.889484437385861</v>
       </c>
       <c r="W89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X89" t="n">
-        <v>0.5766988044532517</v>
+        <v>0.405083825348819</v>
       </c>
       <c r="Y89" t="n">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.179617</t>
+          <t>2025-11-13T06:52:39.251021</t>
         </is>
       </c>
     </row>
@@ -8626,7 +8626,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H90" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="b">
@@ -8681,17 +8681,17 @@
         <v>1.992836018344494</v>
       </c>
       <c r="W90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X90" t="n">
-        <v>0.405083825348819</v>
+        <v>0.5144008398418366</v>
       </c>
       <c r="Y90" t="n">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.179617</t>
+          <t>2025-11-13T06:52:39.251021</t>
         </is>
       </c>
     </row>
@@ -8718,7 +8718,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H91" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L91" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="b">
@@ -8773,17 +8773,17 @@
         <v>2.590859871159036</v>
       </c>
       <c r="W91" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X91" t="n">
-        <v>0.5144008398418366</v>
+        <v>0.5144584938341676</v>
       </c>
       <c r="Y91" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.179617</t>
+          <t>2025-11-13T06:52:39.251021</t>
         </is>
       </c>
     </row>
@@ -8810,7 +8810,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H92" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L92" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="b">
@@ -8865,17 +8865,17 @@
         <v>1.791676977912986</v>
       </c>
       <c r="W92" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X92" t="n">
-        <v>0.5144584938341676</v>
+        <v>0.4789382933618944</v>
       </c>
       <c r="Y92" t="n">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.180151</t>
+          <t>2025-11-13T06:52:39.251021</t>
         </is>
       </c>
     </row>
@@ -8902,7 +8902,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="b">
@@ -8957,17 +8957,17 @@
         <v>2.266515143809492</v>
       </c>
       <c r="W93" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X93" t="n">
-        <v>0.4789382933618944</v>
+        <v>0.5712648583756185</v>
       </c>
       <c r="Y93" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.180151</t>
+          <t>2025-11-13T06:52:39.251021</t>
         </is>
       </c>
     </row>
@@ -8994,7 +8994,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H94" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L94" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="b">
@@ -9049,17 +9049,17 @@
         <v>1.900635333699646</v>
       </c>
       <c r="W94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X94" t="n">
-        <v>0.5712648583756185</v>
+        <v>0.4521658349660818</v>
       </c>
       <c r="Y94" t="n">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.180151</t>
+          <t>2025-11-13T06:52:39.251021</t>
         </is>
       </c>
     </row>
@@ -9086,7 +9086,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H95" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L95" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="b">
@@ -9141,17 +9141,17 @@
         <v>1.711272511238302</v>
       </c>
       <c r="W95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X95" t="n">
-        <v>0.4521658349660818</v>
+        <v>0.4633844010312556</v>
       </c>
       <c r="Y95" t="n">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.180151</t>
+          <t>2025-11-13T06:52:39.251021</t>
         </is>
       </c>
     </row>
@@ -9178,7 +9178,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H96" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="b">
@@ -9233,17 +9233,17 @@
         <v>2.561267032525648</v>
       </c>
       <c r="W96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X96" t="n">
-        <v>0.4633844010312556</v>
+        <v>0.5860033669621664</v>
       </c>
       <c r="Y96" t="n">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.180151</t>
+          <t>2025-11-13T06:52:39.251021</t>
         </is>
       </c>
     </row>
@@ -9270,7 +9270,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H97" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L97" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="b">
@@ -9325,17 +9325,17 @@
         <v>2.214065652338276</v>
       </c>
       <c r="W97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X97" t="n">
-        <v>0.5860033669621664</v>
+        <v>0.5045465658763988</v>
       </c>
       <c r="Y97" t="n">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.180151</t>
+          <t>2025-11-13T06:52:39.251021</t>
         </is>
       </c>
     </row>
@@ -9362,7 +9362,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H98" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="b">
@@ -9417,17 +9417,17 @@
         <v>1.578089462306014</v>
       </c>
       <c r="W98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X98" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.4484319876554852</v>
       </c>
       <c r="Y98" t="n">
         <v>129</v>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.180151</t>
+          <t>2025-11-13T06:52:39.251021</t>
         </is>
       </c>
     </row>
@@ -9454,7 +9454,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H99" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L99" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="b">
@@ -9509,17 +9509,17 @@
         <v>2.854787520397721</v>
       </c>
       <c r="W99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X99" t="n">
-        <v>0.4484319876554852</v>
+        <v>0.4544264498769271</v>
       </c>
       <c r="Y99" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.180151</t>
+          <t>2025-11-13T06:52:39.252020</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H100" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L100" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="b">
@@ -9601,17 +9601,17 @@
         <v>2.457965885458756</v>
       </c>
       <c r="W100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X100" t="n">
-        <v>0.4544264498769271</v>
+        <v>0.561900209227943</v>
       </c>
       <c r="Y100" t="n">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.180151</t>
+          <t>2025-11-13T06:52:39.252020</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H101" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L101" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="b">
@@ -9693,17 +9693,17 @@
         <v>1.984717865097859</v>
       </c>
       <c r="W101" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X101" t="n">
-        <v>0.5829919351087561</v>
+        <v>0.4557742705184364</v>
       </c>
       <c r="Y101" t="n">
         <v>111</v>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.180151</t>
+          <t>2025-11-13T06:52:39.252020</t>
         </is>
       </c>
     </row>
@@ -9730,7 +9730,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H102" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L102" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="b">
@@ -9785,17 +9785,17 @@
         <v>2.435118605829143</v>
       </c>
       <c r="W102" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X102" t="n">
-        <v>0.4557742705184364</v>
+        <v>0.4150692512012257</v>
       </c>
       <c r="Y102" t="n">
         <v>26</v>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:34.180151</t>
+          <t>2025-11-13T06:52:39.252020</t>
         </is>
       </c>
     </row>
@@ -9822,7 +9822,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H103" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="b">
@@ -9877,17 +9877,17 @@
         <v>1.872684301222326</v>
       </c>
       <c r="W103" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="X103" t="n">
-        <v>0.501762815367752</v>
+        <v>0.4543085831639484</v>
       </c>
       <c r="Y103" t="n">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:35.361370</t>
+          <t>2025-11-13T06:52:39.654839</t>
         </is>
       </c>
     </row>
@@ -9914,7 +9914,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L104" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="b">
@@ -9969,17 +9969,17 @@
         <v>2.894769969471886</v>
       </c>
       <c r="W104" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="X104" t="n">
-        <v>0.4512413887188916</v>
+        <v>0.4789382933618944</v>
       </c>
       <c r="Y104" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:35.361370</t>
+          <t>2025-11-13T06:52:39.654839</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9996,7 @@
         <v>4</v>
       </c>
       <c r="D105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -10006,7 +10006,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -10020,11 +10020,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L105" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105" t="b">
         <v>1</v>
@@ -10061,13 +10061,17 @@
         <v>2.330391793602711</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
-      </c>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0.5488085285998231</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>166</v>
+      </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:35.361370</t>
+          <t>2025-11-13T06:52:39.654839</t>
         </is>
       </c>
     </row>
@@ -10084,7 +10088,7 @@
         <v>4</v>
       </c>
       <c r="D106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -10094,7 +10098,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H106" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -10108,11 +10112,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L106" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O106" t="b">
         <v>1</v>
@@ -10149,13 +10153,17 @@
         <v>2.082021857441931</v>
       </c>
       <c r="W106" t="n">
-        <v>0</v>
-      </c>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0.5939073734228317</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>43</v>
+      </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:35.361370</t>
+          <t>2025-11-13T06:52:39.654839</t>
         </is>
       </c>
     </row>
@@ -10182,7 +10190,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H107" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -10196,7 +10204,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L107" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="b">
@@ -10240,14 +10248,14 @@
         <v>12</v>
       </c>
       <c r="X107" t="n">
-        <v>0.4323257428189228</v>
+        <v>0.5684046150023963</v>
       </c>
       <c r="Y107" t="n">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:35.361370</t>
+          <t>2025-11-13T06:52:39.654839</t>
         </is>
       </c>
     </row>
@@ -10274,7 +10282,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H108" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -10288,7 +10296,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L108" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="b">
@@ -10329,17 +10337,17 @@
         <v>2.31173479386464</v>
       </c>
       <c r="W108" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="X108" t="n">
-        <v>0.4141881833999855</v>
+        <v>0.425412102530377</v>
       </c>
       <c r="Y108" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:35.361370</t>
+          <t>2025-11-13T06:52:39.654839</t>
         </is>
       </c>
     </row>
@@ -10366,7 +10374,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H109" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -10380,7 +10388,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L109" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="b">
@@ -10421,17 +10429,17 @@
         <v>1.696862696367663</v>
       </c>
       <c r="W109" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X109" t="n">
-        <v>0.510552993367098</v>
+        <v>0.493119603626492</v>
       </c>
       <c r="Y109" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:35.361370</t>
+          <t>2025-11-13T06:52:39.654839</t>
         </is>
       </c>
     </row>
@@ -10458,7 +10466,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H110" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -10472,7 +10480,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="b">
@@ -10513,17 +10521,17 @@
         <v>3.011170816582051</v>
       </c>
       <c r="W110" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="X110" t="n">
-        <v>0.577323429790132</v>
+        <v>0.4163188360800481</v>
       </c>
       <c r="Y110" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:35.361370</t>
+          <t>2025-11-13T06:52:39.654839</t>
         </is>
       </c>
     </row>
@@ -10550,7 +10558,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -10564,7 +10572,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="b">
@@ -10605,17 +10613,17 @@
         <v>2.700650571686993</v>
       </c>
       <c r="W111" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X111" t="n">
-        <v>0.5157729791015118</v>
+        <v>0.5947327673510634</v>
       </c>
       <c r="Y111" t="n">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:35.361370</t>
+          <t>2025-11-13T06:52:39.654839</t>
         </is>
       </c>
     </row>
@@ -10642,7 +10650,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H112" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -10656,7 +10664,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="b">
@@ -10697,17 +10705,17 @@
         <v>2.699512013925247</v>
       </c>
       <c r="W112" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="X112" t="n">
-        <v>0.493119603626492</v>
+        <v>0.436866734866274</v>
       </c>
       <c r="Y112" t="n">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:35.361370</t>
+          <t>2025-11-13T06:52:39.654839</t>
         </is>
       </c>
     </row>
